--- a/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>0.9978645593176652</v>
       </c>
       <c r="D3">
+        <v>1.014267101176337</v>
+      </c>
+      <c r="E3">
+        <v>0.9863447132558466</v>
+      </c>
+      <c r="F3">
+        <v>0.9918960300129768</v>
+      </c>
+      <c r="G3">
+        <v>1.007619265849764</v>
+      </c>
+      <c r="H3">
         <v>0.9704882145744513</v>
       </c>
-      <c r="E3">
-        <v>1.007619265849764</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9704882145744513</v>
+      </c>
+      <c r="J3">
         <v>0.9978645593176652</v>
-      </c>
-      <c r="G3">
-        <v>0.9863447132558466</v>
-      </c>
-      <c r="H3">
-        <v>1.014267101176337</v>
-      </c>
-      <c r="I3">
-        <v>0.991896030012977</v>
-      </c>
-      <c r="J3">
-        <v>0.9704882145744513</v>
       </c>
       <c r="K3">
         <v>0.9978645593176652</v>
@@ -728,7 +680,7 @@
         <v>0.9947466473645069</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,25 +691,25 @@
         <v>0.9972827680380077</v>
       </c>
       <c r="D4">
-        <v>0.9466715101454212</v>
+        <v>1.027886684732099</v>
       </c>
       <c r="E4">
+        <v>0.9723677375986084</v>
+      </c>
+      <c r="F4">
+        <v>0.9853474614015215</v>
+      </c>
+      <c r="G4">
         <v>1.012454104656298</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.9466715101454211</v>
+      </c>
+      <c r="I4">
+        <v>0.9466715101454211</v>
+      </c>
+      <c r="J4">
         <v>0.9972827680380077</v>
-      </c>
-      <c r="G4">
-        <v>0.9723677375986084</v>
-      </c>
-      <c r="H4">
-        <v>1.027886684732099</v>
-      </c>
-      <c r="I4">
-        <v>0.9853474614015215</v>
-      </c>
-      <c r="J4">
-        <v>0.9466715101454212</v>
       </c>
       <c r="K4">
         <v>0.9972827680380077</v>
@@ -766,10 +718,10 @@
         <v>1.012454104656298</v>
       </c>
       <c r="M4">
-        <v>0.9795628074008598</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="N4">
-        <v>0.9795628074008598</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="O4">
         <v>0.9956707665112727</v>
@@ -790,7 +742,7 @@
         <v>0.9903350444286593</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,25 +753,25 @@
         <v>0.9957060711868753</v>
       </c>
       <c r="D5">
+        <v>1.055126018523769</v>
+      </c>
+      <c r="E5">
+        <v>0.9409609257501972</v>
+      </c>
+      <c r="F5">
+        <v>0.9678783443915961</v>
+      </c>
+      <c r="G5">
+        <v>1.029935047685682</v>
+      </c>
+      <c r="H5">
         <v>0.8951761442182664</v>
       </c>
-      <c r="E5">
-        <v>1.029935047685682</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0.8951761442182664</v>
+      </c>
+      <c r="J5">
         <v>0.9957060711868753</v>
-      </c>
-      <c r="G5">
-        <v>0.9409609257501972</v>
-      </c>
-      <c r="H5">
-        <v>1.055126018523769</v>
-      </c>
-      <c r="I5">
-        <v>0.9678783443915961</v>
-      </c>
-      <c r="J5">
-        <v>0.8951761442182664</v>
       </c>
       <c r="K5">
         <v>0.9957060711868753</v>
@@ -852,7 +804,7 @@
         <v>0.9807970919593975</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,25 +815,25 @@
         <v>1.055566741626367</v>
       </c>
       <c r="D6">
+        <v>1.108791490167515</v>
+      </c>
+      <c r="E6">
+        <v>0.8840252345776642</v>
+      </c>
+      <c r="F6">
+        <v>0.9159223522073929</v>
+      </c>
+      <c r="G6">
+        <v>1.08901399717285</v>
+      </c>
+      <c r="H6">
         <v>0.767580760039565</v>
       </c>
-      <c r="E6">
-        <v>1.08901399717285</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.767580760039565</v>
+      </c>
+      <c r="J6">
         <v>1.055566741626367</v>
-      </c>
-      <c r="G6">
-        <v>0.8840252345776642</v>
-      </c>
-      <c r="H6">
-        <v>1.108791490167515</v>
-      </c>
-      <c r="I6">
-        <v>0.9159223522073928</v>
-      </c>
-      <c r="J6">
-        <v>0.767580760039565</v>
       </c>
       <c r="K6">
         <v>1.055566741626367</v>
@@ -914,7 +866,7 @@
         <v>0.9701500959652257</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999289249456503</v>
+        <v>0.9999289249456498</v>
       </c>
       <c r="D7">
+        <v>0.9998489244648524</v>
+      </c>
+      <c r="E7">
+        <v>0.9988392864168112</v>
+      </c>
+      <c r="F7">
+        <v>0.9998110159479626</v>
+      </c>
+      <c r="G7">
+        <v>1.000807184992088</v>
+      </c>
+      <c r="H7">
         <v>0.9991968932882501</v>
       </c>
-      <c r="E7">
-        <v>1.000807184992088</v>
-      </c>
-      <c r="F7">
-        <v>0.9999289249456503</v>
-      </c>
-      <c r="G7">
-        <v>0.9988392864168121</v>
-      </c>
-      <c r="H7">
-        <v>0.9998489244648521</v>
-      </c>
       <c r="I7">
-        <v>0.9998110159479615</v>
+        <v>0.9991968932882501</v>
       </c>
       <c r="J7">
-        <v>0.9991968932882501</v>
+        <v>0.9999289249456498</v>
       </c>
       <c r="K7">
-        <v>0.9999289249456503</v>
+        <v>0.9999289249456498</v>
       </c>
       <c r="L7">
         <v>1.000807184992088</v>
@@ -958,25 +910,25 @@
         <v>1.000002039140169</v>
       </c>
       <c r="O7">
-        <v>0.9999510009150633</v>
+        <v>0.9999510009150634</v>
       </c>
       <c r="P7">
-        <v>0.9999776677419961</v>
+        <v>0.9999776677419959</v>
       </c>
       <c r="Q7">
-        <v>0.9999776677419961</v>
+        <v>0.9999776677419959</v>
       </c>
       <c r="R7">
-        <v>0.9999654820429097</v>
+        <v>0.9999654820429094</v>
       </c>
       <c r="S7">
-        <v>0.9999654820429097</v>
+        <v>0.9999654820429094</v>
       </c>
       <c r="T7">
         <v>0.999738705009269</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,40 +936,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002016885767033</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="D8">
-        <v>0.9974021288008111</v>
+        <v>0.9991291660660127</v>
       </c>
       <c r="E8">
+        <v>0.997873972454983</v>
+      </c>
+      <c r="F8">
+        <v>0.9993888099314353</v>
+      </c>
+      <c r="G8">
         <v>1.001580172116485</v>
       </c>
-      <c r="F8">
-        <v>1.002016885767033</v>
-      </c>
-      <c r="G8">
-        <v>0.997873972454983</v>
-      </c>
       <c r="H8">
-        <v>0.9991291660660139</v>
+        <v>0.9974021288008115</v>
       </c>
       <c r="I8">
-        <v>0.9993888099314354</v>
+        <v>0.9974021288008115</v>
       </c>
       <c r="J8">
-        <v>0.9974021288008111</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="K8">
-        <v>1.002016885767033</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="L8">
         <v>1.001580172116485</v>
       </c>
       <c r="M8">
-        <v>0.9994911504586479</v>
+        <v>0.9994911504586483</v>
       </c>
       <c r="N8">
-        <v>0.9994911504586479</v>
+        <v>0.9994911504586483</v>
       </c>
       <c r="O8">
         <v>0.9993704889944365</v>
@@ -1035,10 +987,10 @@
         <v>1.00075401811284</v>
       </c>
       <c r="T8">
-        <v>0.9995651891894601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9995651891894598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>1.005676169878952</v>
       </c>
       <c r="D9">
+        <v>0.9995225508714896</v>
+      </c>
+      <c r="E9">
+        <v>0.9954274433065273</v>
+      </c>
+      <c r="F9">
+        <v>0.999021787146575</v>
+      </c>
+      <c r="G9">
+        <v>1.001107071936894</v>
+      </c>
+      <c r="H9">
         <v>0.9969506605983721</v>
       </c>
-      <c r="E9">
-        <v>1.001107071936894</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.9969506605983721</v>
+      </c>
+      <c r="J9">
         <v>1.005676169878952</v>
-      </c>
-      <c r="G9">
-        <v>0.9954274433065273</v>
-      </c>
-      <c r="H9">
-        <v>0.9995225508714898</v>
-      </c>
-      <c r="I9">
-        <v>0.999021787146575</v>
-      </c>
-      <c r="J9">
-        <v>0.9969506605983721</v>
       </c>
       <c r="K9">
         <v>1.005676169878952</v>
@@ -1076,10 +1028,10 @@
         <v>1.001107071936894</v>
       </c>
       <c r="M9">
-        <v>0.999028866267633</v>
+        <v>0.9990288662676332</v>
       </c>
       <c r="N9">
-        <v>0.999028866267633</v>
+        <v>0.9990288662676332</v>
       </c>
       <c r="O9">
         <v>0.999193427802252</v>
@@ -1100,7 +1052,7 @@
         <v>0.9996176139564682</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>1.008188988467924</v>
       </c>
       <c r="D10">
+        <v>0.9986601295551208</v>
+      </c>
+      <c r="E10">
+        <v>0.9912178333996947</v>
+      </c>
+      <c r="F10">
+        <v>0.9979046683443046</v>
+      </c>
+      <c r="G10">
+        <v>1.003552189613114</v>
+      </c>
+      <c r="H10">
         <v>0.9917196233154881</v>
       </c>
-      <c r="E10">
-        <v>1.003552189613114</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>0.9917196233154881</v>
+      </c>
+      <c r="J10">
         <v>1.008188988467924</v>
-      </c>
-      <c r="G10">
-        <v>0.9912178333996947</v>
-      </c>
-      <c r="H10">
-        <v>0.9986601295551208</v>
-      </c>
-      <c r="I10">
-        <v>0.9979046683443046</v>
-      </c>
-      <c r="J10">
-        <v>0.9917196233154881</v>
       </c>
       <c r="K10">
         <v>1.008188988467924</v>
@@ -1153,16 +1105,16 @@
         <v>1.001153600465509</v>
       </c>
       <c r="R10">
-        <v>1.002912447466113</v>
+        <v>1.002912447466112</v>
       </c>
       <c r="S10">
-        <v>1.002912447466113</v>
+        <v>1.002912447466112</v>
       </c>
       <c r="T10">
         <v>0.998540572115941</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.024129878154946</v>
       </c>
       <c r="D11">
-        <v>0.9848034862998281</v>
+        <v>0.9976425313170845</v>
       </c>
       <c r="E11">
+        <v>0.982274832809247</v>
+      </c>
+      <c r="F11">
+        <v>0.9960357561116367</v>
+      </c>
+      <c r="G11">
         <v>1.00230940933586</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9848034862998278</v>
+      </c>
+      <c r="I11">
+        <v>0.9848034862998278</v>
+      </c>
+      <c r="J11">
         <v>1.024129878154946</v>
-      </c>
-      <c r="G11">
-        <v>0.982274832809247</v>
-      </c>
-      <c r="H11">
-        <v>0.9976425313170842</v>
-      </c>
-      <c r="I11">
-        <v>0.9960357561116365</v>
-      </c>
-      <c r="J11">
-        <v>0.9848034862998281</v>
       </c>
       <c r="K11">
         <v>1.024129878154946</v>
@@ -1200,10 +1152,10 @@
         <v>1.00230940933586</v>
       </c>
       <c r="M11">
-        <v>0.9935564478178441</v>
+        <v>0.993556447817844</v>
       </c>
       <c r="N11">
-        <v>0.9935564478178441</v>
+        <v>0.993556447817844</v>
       </c>
       <c r="O11">
         <v>0.9949184756509242</v>
@@ -1224,7 +1176,7 @@
         <v>0.9978659823381003</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>1.011437953484005</v>
       </c>
       <c r="D12">
+        <v>1.098858845123458</v>
+      </c>
+      <c r="E12">
+        <v>0.5443522046235768</v>
+      </c>
+      <c r="F12">
+        <v>1.048333198550172</v>
+      </c>
+      <c r="G12">
+        <v>1.170289252467368</v>
+      </c>
+      <c r="H12">
         <v>0.6318281405954196</v>
       </c>
-      <c r="E12">
-        <v>1.170289252467368</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
+        <v>0.6318281405954196</v>
+      </c>
+      <c r="J12">
         <v>1.011437953484005</v>
-      </c>
-      <c r="G12">
-        <v>0.5443522046235768</v>
-      </c>
-      <c r="H12">
-        <v>1.098858845123458</v>
-      </c>
-      <c r="I12">
-        <v>1.048333198550172</v>
-      </c>
-      <c r="J12">
-        <v>0.6318281405954196</v>
       </c>
       <c r="K12">
         <v>1.011437953484005</v>
@@ -1262,31 +1214,31 @@
         <v>1.170289252467368</v>
       </c>
       <c r="M12">
-        <v>0.9010586965313937</v>
+        <v>0.9010586965313938</v>
       </c>
       <c r="N12">
-        <v>0.9010586965313937</v>
+        <v>0.9010586965313938</v>
       </c>
       <c r="O12">
         <v>0.966992079395415</v>
       </c>
       <c r="P12">
-        <v>0.9378517821822641</v>
+        <v>0.9378517821822644</v>
       </c>
       <c r="Q12">
-        <v>0.9378517821822641</v>
+        <v>0.9378517821822644</v>
       </c>
       <c r="R12">
-        <v>0.9562483250076993</v>
+        <v>0.9562483250076996</v>
       </c>
       <c r="S12">
-        <v>0.9562483250076993</v>
+        <v>0.9562483250076996</v>
       </c>
       <c r="T12">
         <v>0.9175165991406665</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>1.106737966520642</v>
       </c>
       <c r="D13">
+        <v>0.9678898219812958</v>
+      </c>
+      <c r="E13">
+        <v>1.409996485763323</v>
+      </c>
+      <c r="F13">
+        <v>0.8927994789944967</v>
+      </c>
+      <c r="G13">
+        <v>0.7270118182049549</v>
+      </c>
+      <c r="H13">
         <v>1.403908533245268</v>
       </c>
-      <c r="E13">
-        <v>0.7270118182049549</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
+        <v>1.403908533245268</v>
+      </c>
+      <c r="J13">
         <v>1.106737966520642</v>
-      </c>
-      <c r="G13">
-        <v>1.409996485763323</v>
-      </c>
-      <c r="H13">
-        <v>0.9678898219812959</v>
-      </c>
-      <c r="I13">
-        <v>0.892799478994497</v>
-      </c>
-      <c r="J13">
-        <v>1.403908533245268</v>
       </c>
       <c r="K13">
         <v>1.106737966520642</v>
@@ -1333,7 +1285,7 @@
         <v>1.032936724477173</v>
       </c>
       <c r="P13">
-        <v>1.079219439323621</v>
+        <v>1.079219439323622</v>
       </c>
       <c r="Q13">
         <v>1.079219439323622</v>
@@ -1348,7 +1300,7 @@
         <v>1.084724017451663</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,43 +1308,43 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1158970287474199</v>
+        <v>0.1158970287474198</v>
       </c>
       <c r="D14">
-        <v>2.531627683444907</v>
+        <v>1.284674495458042</v>
       </c>
       <c r="E14">
+        <v>2.03667086290952</v>
+      </c>
+      <c r="F14">
+        <v>0.7350675742297492</v>
+      </c>
+      <c r="G14">
         <v>1.044449162517469</v>
       </c>
-      <c r="F14">
-        <v>0.1158970287474199</v>
-      </c>
-      <c r="G14">
-        <v>2.03667086290952</v>
-      </c>
       <c r="H14">
-        <v>1.284674495458041</v>
+        <v>2.531627683444908</v>
       </c>
       <c r="I14">
-        <v>0.7350675742297493</v>
+        <v>2.531627683444908</v>
       </c>
       <c r="J14">
-        <v>2.531627683444907</v>
+        <v>0.1158970287474198</v>
       </c>
       <c r="K14">
-        <v>0.1158970287474199</v>
+        <v>0.1158970287474198</v>
       </c>
       <c r="L14">
         <v>1.044449162517469</v>
       </c>
       <c r="M14">
-        <v>1.788038422981188</v>
+        <v>1.788038422981189</v>
       </c>
       <c r="N14">
-        <v>1.788038422981188</v>
+        <v>1.788038422981189</v>
       </c>
       <c r="O14">
-        <v>1.620250447140139</v>
+        <v>1.62025044714014</v>
       </c>
       <c r="P14">
         <v>1.230657958236599</v>
@@ -1401,16 +1353,16 @@
         <v>1.230657958236599</v>
       </c>
       <c r="R14">
-        <v>0.951967725864304</v>
+        <v>0.9519677258643042</v>
       </c>
       <c r="S14">
-        <v>0.951967725864304</v>
+        <v>0.9519677258643042</v>
       </c>
       <c r="T14">
         <v>1.291397801217851</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>1.025911924069816</v>
       </c>
       <c r="D15">
+        <v>0.9814836503684756</v>
+      </c>
+      <c r="E15">
+        <v>0.1609494115799943</v>
+      </c>
+      <c r="F15">
+        <v>1.164495545096034</v>
+      </c>
+      <c r="G15">
+        <v>1.138845284116459</v>
+      </c>
+      <c r="H15">
         <v>0.3089585576332136</v>
       </c>
-      <c r="E15">
-        <v>1.138845284116459</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
+        <v>0.3089585576332136</v>
+      </c>
+      <c r="J15">
         <v>1.025911924069816</v>
-      </c>
-      <c r="G15">
-        <v>0.1609494115799943</v>
-      </c>
-      <c r="H15">
-        <v>0.9814836503684756</v>
-      </c>
-      <c r="I15">
-        <v>1.164495545096034</v>
-      </c>
-      <c r="J15">
-        <v>0.3089585576332136</v>
       </c>
       <c r="K15">
         <v>1.025911924069816</v>
@@ -1472,7 +1424,7 @@
         <v>0.7967740621439986</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9954162592545677</v>
+        <v>0.9261575093786337</v>
       </c>
       <c r="D16">
-        <v>1.000496977982102</v>
+        <v>1.256072325241125</v>
       </c>
       <c r="E16">
-        <v>1.00029422230396</v>
+        <v>0.7322227864014738</v>
       </c>
       <c r="F16">
-        <v>0.9954162592545677</v>
+        <v>0.8679067618438852</v>
       </c>
       <c r="G16">
-        <v>1.003748034841161</v>
+        <v>1.112646480374174</v>
       </c>
       <c r="H16">
-        <v>0.9992203591548816</v>
+        <v>0.5702012723498482</v>
       </c>
       <c r="I16">
-        <v>0.9996322394661903</v>
+        <v>0.5702012723498482</v>
       </c>
       <c r="J16">
-        <v>1.000496977982102</v>
+        <v>0.9261575093786337</v>
       </c>
       <c r="K16">
-        <v>0.9954162592545677</v>
+        <v>0.9261575093786337</v>
       </c>
       <c r="L16">
-        <v>1.00029422230396</v>
+        <v>1.112646480374174</v>
       </c>
       <c r="M16">
-        <v>1.000395600143031</v>
+        <v>0.841423876362011</v>
       </c>
       <c r="N16">
-        <v>1.000395600143031</v>
+        <v>0.841423876362011</v>
       </c>
       <c r="O16">
-        <v>1.000003853146981</v>
+        <v>0.9796400259883823</v>
       </c>
       <c r="P16">
-        <v>0.9987358198468765</v>
+        <v>0.8696684207008852</v>
       </c>
       <c r="Q16">
-        <v>0.9987358198468765</v>
+        <v>0.8696684207008852</v>
       </c>
       <c r="R16">
-        <v>0.9979059296987993</v>
+        <v>0.8837906928703224</v>
       </c>
       <c r="S16">
-        <v>0.9979059296987993</v>
+        <v>0.8837906928703224</v>
       </c>
       <c r="T16">
-        <v>0.9998013488338103</v>
+        <v>0.9108678559315232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00537011058927</v>
+        <v>0.9155703300499539</v>
       </c>
       <c r="D17">
-        <v>0.9973677007749979</v>
+        <v>1.185187119112944</v>
       </c>
       <c r="E17">
-        <v>1.003019740754602</v>
+        <v>0.7815954441410369</v>
       </c>
       <c r="F17">
-        <v>1.00537011058927</v>
+        <v>0.9053591356885938</v>
       </c>
       <c r="G17">
-        <v>0.9914503966597793</v>
+        <v>1.094579783781052</v>
       </c>
       <c r="H17">
-        <v>1.001146247009219</v>
+        <v>0.7086171501584344</v>
       </c>
       <c r="I17">
-        <v>1.000526657186577</v>
+        <v>0.7086171501584344</v>
       </c>
       <c r="J17">
-        <v>0.9973677007749979</v>
+        <v>0.9155703300499539</v>
       </c>
       <c r="K17">
-        <v>1.00537011058927</v>
+        <v>0.9155703300499539</v>
       </c>
       <c r="L17">
-        <v>1.003019740754602</v>
+        <v>1.094579783781052</v>
       </c>
       <c r="M17">
-        <v>1.0001937207648</v>
+        <v>0.9015984669697433</v>
       </c>
       <c r="N17">
-        <v>1.0001937207648</v>
+        <v>0.9015984669697433</v>
       </c>
       <c r="O17">
-        <v>1.000511229512939</v>
+        <v>0.9961280176841436</v>
       </c>
       <c r="P17">
-        <v>1.001919184039623</v>
+        <v>0.9062557546631469</v>
       </c>
       <c r="Q17">
-        <v>1.001919184039623</v>
+        <v>0.9062557546631469</v>
       </c>
       <c r="R17">
-        <v>1.002781915677035</v>
+        <v>0.9085843985098486</v>
       </c>
       <c r="S17">
-        <v>1.002781915677035</v>
+        <v>0.9085843985098486</v>
       </c>
       <c r="T17">
-        <v>0.9998134754957407</v>
+        <v>0.9318181604886693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964649070109687</v>
+        <v>0.8995179284783758</v>
       </c>
       <c r="D18">
-        <v>0.9915094545540114</v>
+        <v>1.043528871194565</v>
       </c>
       <c r="E18">
-        <v>0.9963529138335051</v>
+        <v>0.8806747222859712</v>
       </c>
       <c r="F18">
-        <v>0.9964649070109687</v>
+        <v>0.9799724148950771</v>
       </c>
       <c r="G18">
-        <v>1.00853832298829</v>
+        <v>1.056846402212026</v>
       </c>
       <c r="H18">
-        <v>1.000168882744877</v>
+        <v>0.9850084188125846</v>
       </c>
       <c r="I18">
-        <v>0.9943767541621288</v>
+        <v>0.9850084188125846</v>
       </c>
       <c r="J18">
-        <v>0.9915094545540114</v>
+        <v>0.8995179284783758</v>
       </c>
       <c r="K18">
-        <v>0.9964649070109687</v>
+        <v>0.8995179284783758</v>
       </c>
       <c r="L18">
-        <v>0.9963529138335051</v>
+        <v>1.056846402212026</v>
       </c>
       <c r="M18">
-        <v>0.9939311841937583</v>
+        <v>1.020927410512305</v>
       </c>
       <c r="N18">
-        <v>0.9939311841937583</v>
+        <v>1.020927410512305</v>
       </c>
       <c r="O18">
-        <v>0.9960104170441312</v>
+        <v>1.028461230739725</v>
       </c>
       <c r="P18">
-        <v>0.9947757584661617</v>
+        <v>0.9804575831676621</v>
       </c>
       <c r="Q18">
-        <v>0.9947757584661617</v>
+        <v>0.9804575831676621</v>
       </c>
       <c r="R18">
-        <v>0.9951980456023635</v>
+        <v>0.9602226694953405</v>
       </c>
       <c r="S18">
-        <v>0.9951980456023635</v>
+        <v>0.9602226694953405</v>
       </c>
       <c r="T18">
-        <v>0.9979018725489635</v>
+        <v>0.9742581263131002</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9467397579547169</v>
+        <v>0.8003959060185304</v>
       </c>
       <c r="D19">
+        <v>1.043251955070053</v>
+      </c>
+      <c r="E19">
+        <v>0.8550655320240523</v>
+      </c>
+      <c r="F19">
+        <v>0.9929812415502769</v>
+      </c>
+      <c r="G19">
+        <v>1.12379416104604</v>
+      </c>
+      <c r="H19">
+        <v>0.8586186811352946</v>
+      </c>
+      <c r="I19">
+        <v>0.8586186811352946</v>
+      </c>
+      <c r="J19">
+        <v>0.8003959060185304</v>
+      </c>
+      <c r="K19">
+        <v>0.8003959060185304</v>
+      </c>
+      <c r="L19">
+        <v>1.12379416104604</v>
+      </c>
+      <c r="M19">
+        <v>0.9912064210906675</v>
+      </c>
+      <c r="N19">
+        <v>0.9912064210906675</v>
+      </c>
+      <c r="O19">
+        <v>1.008554932417129</v>
+      </c>
+      <c r="P19">
+        <v>0.9276029160666218</v>
+      </c>
+      <c r="Q19">
+        <v>0.9276029160666218</v>
+      </c>
+      <c r="R19">
+        <v>0.8958011635545989</v>
+      </c>
+      <c r="S19">
+        <v>0.8958011635545989</v>
+      </c>
+      <c r="T19">
+        <v>0.9456845794740412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9954162592545671</v>
+      </c>
+      <c r="D20">
+        <v>0.9992203591548816</v>
+      </c>
+      <c r="E20">
+        <v>1.003748034841161</v>
+      </c>
+      <c r="F20">
+        <v>0.9996322394661905</v>
+      </c>
+      <c r="G20">
+        <v>1.000294222303959</v>
+      </c>
+      <c r="H20">
+        <v>1.000496977982101</v>
+      </c>
+      <c r="I20">
+        <v>1.000496977982101</v>
+      </c>
+      <c r="J20">
+        <v>0.9954162592545671</v>
+      </c>
+      <c r="K20">
+        <v>0.9954162592545671</v>
+      </c>
+      <c r="L20">
+        <v>1.000294222303959</v>
+      </c>
+      <c r="M20">
+        <v>1.00039560014303</v>
+      </c>
+      <c r="N20">
+        <v>1.00039560014303</v>
+      </c>
+      <c r="O20">
+        <v>1.000003853146981</v>
+      </c>
+      <c r="P20">
+        <v>0.9987358198468758</v>
+      </c>
+      <c r="Q20">
+        <v>0.998735819846876</v>
+      </c>
+      <c r="R20">
+        <v>0.9979059296987988</v>
+      </c>
+      <c r="S20">
+        <v>0.9979059296987988</v>
+      </c>
+      <c r="T20">
+        <v>0.9998013488338101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00537011058927</v>
+      </c>
+      <c r="D21">
+        <v>1.001146247009219</v>
+      </c>
+      <c r="E21">
+        <v>0.9914503966597796</v>
+      </c>
+      <c r="F21">
+        <v>1.000526657186577</v>
+      </c>
+      <c r="G21">
+        <v>1.003019740754602</v>
+      </c>
+      <c r="H21">
+        <v>0.9973677007749975</v>
+      </c>
+      <c r="I21">
+        <v>0.9973677007749975</v>
+      </c>
+      <c r="J21">
+        <v>1.00537011058927</v>
+      </c>
+      <c r="K21">
+        <v>1.00537011058927</v>
+      </c>
+      <c r="L21">
+        <v>1.003019740754602</v>
+      </c>
+      <c r="M21">
+        <v>1.0001937207648</v>
+      </c>
+      <c r="N21">
+        <v>1.0001937207648</v>
+      </c>
+      <c r="O21">
+        <v>1.00051122951294</v>
+      </c>
+      <c r="P21">
+        <v>1.001919184039623</v>
+      </c>
+      <c r="Q21">
+        <v>1.001919184039623</v>
+      </c>
+      <c r="R21">
+        <v>1.002781915677035</v>
+      </c>
+      <c r="S21">
+        <v>1.002781915677035</v>
+      </c>
+      <c r="T21">
+        <v>0.999813475495741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9964649070109688</v>
+      </c>
+      <c r="D22">
+        <v>1.000168882744877</v>
+      </c>
+      <c r="E22">
+        <v>1.008538322988289</v>
+      </c>
+      <c r="F22">
+        <v>0.9943767541621281</v>
+      </c>
+      <c r="G22">
+        <v>0.9963529138335054</v>
+      </c>
+      <c r="H22">
+        <v>0.9915094545540111</v>
+      </c>
+      <c r="I22">
+        <v>0.9915094545540111</v>
+      </c>
+      <c r="J22">
+        <v>0.9964649070109688</v>
+      </c>
+      <c r="K22">
+        <v>0.9964649070109688</v>
+      </c>
+      <c r="L22">
+        <v>0.9963529138335054</v>
+      </c>
+      <c r="M22">
+        <v>0.9939311841937583</v>
+      </c>
+      <c r="N22">
+        <v>0.9939311841937583</v>
+      </c>
+      <c r="O22">
+        <v>0.9960104170441312</v>
+      </c>
+      <c r="P22">
+        <v>0.9947757584661617</v>
+      </c>
+      <c r="Q22">
+        <v>0.9947757584661617</v>
+      </c>
+      <c r="R22">
+        <v>0.9951980456023635</v>
+      </c>
+      <c r="S22">
+        <v>0.9951980456023635</v>
+      </c>
+      <c r="T22">
+        <v>0.9979018725489633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9467397579547167</v>
+      </c>
+      <c r="D23">
+        <v>1.005696998184372</v>
+      </c>
+      <c r="E23">
+        <v>1.02062233735316</v>
+      </c>
+      <c r="F23">
+        <v>0.9891594294424666</v>
+      </c>
+      <c r="G23">
+        <v>1.001251203764262</v>
+      </c>
+      <c r="H23">
         <v>0.9856182955431665</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9856182955431665</v>
+      </c>
+      <c r="J23">
+        <v>0.9467397579547167</v>
+      </c>
+      <c r="K23">
+        <v>0.9467397579547167</v>
+      </c>
+      <c r="L23">
         <v>1.001251203764262</v>
       </c>
-      <c r="F19">
-        <v>0.9467397579547169</v>
-      </c>
-      <c r="G19">
-        <v>1.02062233735316</v>
-      </c>
-      <c r="H19">
-        <v>1.005696998184372</v>
-      </c>
-      <c r="I19">
-        <v>0.9891594294424668</v>
-      </c>
-      <c r="J19">
-        <v>0.9856182955431665</v>
-      </c>
-      <c r="K19">
-        <v>0.9467397579547169</v>
-      </c>
-      <c r="L19">
-        <v>1.001251203764262</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9934347496537145</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9934347496537145</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9975221658306005</v>
       </c>
-      <c r="P19">
-        <v>0.9778697524207153</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
         <v>0.9778697524207152</v>
       </c>
-      <c r="R19">
+      <c r="Q23">
+        <v>0.9778697524207152</v>
+      </c>
+      <c r="R23">
         <v>0.9700872538042156</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9700872538042156</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9915146703736907</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9978645593176652</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="D3">
-        <v>1.014267101176337</v>
+        <v>1.038180919065129</v>
       </c>
       <c r="E3">
-        <v>0.9863447132558466</v>
+        <v>0.8527971155690325</v>
       </c>
       <c r="F3">
-        <v>0.9918960300129768</v>
+        <v>0.9778375471613805</v>
       </c>
       <c r="G3">
-        <v>1.007619265849764</v>
+        <v>1.081165264652737</v>
       </c>
       <c r="H3">
-        <v>0.9704882145744513</v>
+        <v>0.9413690536315692</v>
       </c>
       <c r="I3">
-        <v>0.9704882145744513</v>
+        <v>0.9413690536315692</v>
       </c>
       <c r="J3">
-        <v>0.9978645593176652</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="K3">
-        <v>0.9978645593176652</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="L3">
-        <v>1.007619265849764</v>
+        <v>1.081165264652737</v>
       </c>
       <c r="M3">
-        <v>0.9890537402121079</v>
+        <v>1.011267159142153</v>
       </c>
       <c r="N3">
-        <v>0.9890537402121079</v>
+        <v>1.011267159142153</v>
       </c>
       <c r="O3">
-        <v>0.9974581938668511</v>
+        <v>1.020238412449811</v>
       </c>
       <c r="P3">
-        <v>0.9919906799139603</v>
+        <v>0.9690240911607152</v>
       </c>
       <c r="Q3">
-        <v>0.9919906799139603</v>
+        <v>0.9690240911607152</v>
       </c>
       <c r="R3">
-        <v>0.9934591497648866</v>
+        <v>0.9479025571699964</v>
       </c>
       <c r="S3">
-        <v>0.9934591497648866</v>
+        <v>0.9479025571699964</v>
       </c>
       <c r="T3">
-        <v>0.9947466473645069</v>
+        <v>0.9626479758796145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9972827680380077</v>
+        <v>0.8869470850651165</v>
       </c>
       <c r="D4">
-        <v>1.027886684732099</v>
+        <v>1.041010421225306</v>
       </c>
       <c r="E4">
-        <v>0.9723677375986084</v>
+        <v>0.8683518546720913</v>
       </c>
       <c r="F4">
-        <v>0.9853474614015215</v>
+        <v>0.9797059953317216</v>
       </c>
       <c r="G4">
-        <v>1.012454104656298</v>
+        <v>1.069207557355104</v>
       </c>
       <c r="H4">
-        <v>0.9466715101454211</v>
+        <v>0.96551829725116</v>
       </c>
       <c r="I4">
-        <v>0.9466715101454211</v>
+        <v>0.96551829725116</v>
       </c>
       <c r="J4">
-        <v>0.9972827680380077</v>
+        <v>0.8869470850651165</v>
       </c>
       <c r="K4">
-        <v>0.9972827680380077</v>
+        <v>0.8869470850651165</v>
       </c>
       <c r="L4">
-        <v>1.012454104656298</v>
+        <v>1.069207557355104</v>
       </c>
       <c r="M4">
-        <v>0.9795628074008597</v>
+        <v>1.017362927303132</v>
       </c>
       <c r="N4">
-        <v>0.9795628074008597</v>
+        <v>1.017362927303132</v>
       </c>
       <c r="O4">
-        <v>0.9956707665112727</v>
+        <v>1.02524542527719</v>
       </c>
       <c r="P4">
-        <v>0.9854694609465757</v>
+        <v>0.9738909798904601</v>
       </c>
       <c r="Q4">
-        <v>0.9854694609465757</v>
+        <v>0.9738909798904601</v>
       </c>
       <c r="R4">
-        <v>0.9884227877194337</v>
+        <v>0.9521550061841242</v>
       </c>
       <c r="S4">
-        <v>0.9884227877194337</v>
+        <v>0.9521550061841242</v>
       </c>
       <c r="T4">
-        <v>0.9903350444286593</v>
+        <v>0.9684568684834166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9957060711868753</v>
+        <v>0.8822866219908355</v>
       </c>
       <c r="D5">
-        <v>1.055126018523769</v>
+        <v>1.032359431177898</v>
       </c>
       <c r="E5">
-        <v>0.9409609257501972</v>
+        <v>0.8229916659955787</v>
       </c>
       <c r="F5">
-        <v>0.9678783443915961</v>
+        <v>0.9740681038544489</v>
       </c>
       <c r="G5">
-        <v>1.029935047685682</v>
+        <v>1.103506198536387</v>
       </c>
       <c r="H5">
-        <v>0.8951761442182664</v>
+        <v>0.8960771172483567</v>
       </c>
       <c r="I5">
-        <v>0.8951761442182664</v>
+        <v>0.8960771172483567</v>
       </c>
       <c r="J5">
-        <v>0.9957060711868753</v>
+        <v>0.8822866219908355</v>
       </c>
       <c r="K5">
-        <v>0.9957060711868753</v>
+        <v>0.8822866219908355</v>
       </c>
       <c r="L5">
-        <v>1.029935047685682</v>
+        <v>1.103506198536387</v>
       </c>
       <c r="M5">
-        <v>0.962555595951974</v>
+        <v>0.999791657892372</v>
       </c>
       <c r="N5">
-        <v>0.962555595951974</v>
+        <v>0.999791657892372</v>
       </c>
       <c r="O5">
-        <v>0.9934124034759056</v>
+        <v>1.010647582320881</v>
       </c>
       <c r="P5">
-        <v>0.9736057543636077</v>
+        <v>0.9606233125918598</v>
       </c>
       <c r="Q5">
-        <v>0.9736057543636077</v>
+        <v>0.96062331259186</v>
       </c>
       <c r="R5">
-        <v>0.9791308335694247</v>
+        <v>0.9410391399416038</v>
       </c>
       <c r="S5">
-        <v>0.9791308335694247</v>
+        <v>0.9410391399416038</v>
       </c>
       <c r="T5">
-        <v>0.9807970919593975</v>
+        <v>0.9518815231339176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.055566741626367</v>
+        <v>0.8847611085806818</v>
       </c>
       <c r="D6">
-        <v>1.108791490167515</v>
+        <v>1.026419205947727</v>
       </c>
       <c r="E6">
-        <v>0.8840252345776642</v>
+        <v>0.7964436221176129</v>
       </c>
       <c r="F6">
-        <v>0.9159223522073929</v>
+        <v>0.9698231030681826</v>
       </c>
       <c r="G6">
-        <v>1.08901399717285</v>
+        <v>1.125303839903408</v>
       </c>
       <c r="H6">
-        <v>0.767580760039565</v>
+        <v>0.854321656450113</v>
       </c>
       <c r="I6">
-        <v>0.767580760039565</v>
+        <v>0.854321656450113</v>
       </c>
       <c r="J6">
-        <v>1.055566741626367</v>
+        <v>0.8847611085806818</v>
       </c>
       <c r="K6">
-        <v>1.055566741626367</v>
+        <v>0.8847611085806818</v>
       </c>
       <c r="L6">
-        <v>1.08901399717285</v>
+        <v>1.125303839903408</v>
       </c>
       <c r="M6">
-        <v>0.9282973786062074</v>
+        <v>0.9898127481767607</v>
       </c>
       <c r="N6">
-        <v>0.9282973786062074</v>
+        <v>0.9898127481767607</v>
       </c>
       <c r="O6">
-        <v>0.9884620824599767</v>
+        <v>1.002014900767083</v>
       </c>
       <c r="P6">
-        <v>0.9707204996129274</v>
+        <v>0.9547955349780678</v>
       </c>
       <c r="Q6">
-        <v>0.9707204996129274</v>
+        <v>0.9547955349780678</v>
       </c>
       <c r="R6">
-        <v>0.9919320601162873</v>
+        <v>0.9372869283787213</v>
       </c>
       <c r="S6">
-        <v>0.9919320601162873</v>
+        <v>0.9372869283787213</v>
       </c>
       <c r="T6">
-        <v>0.9701500959652257</v>
+        <v>0.9428454226779542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999289249456498</v>
+        <v>2.105440819383835</v>
       </c>
       <c r="D7">
-        <v>0.9998489244648524</v>
+        <v>0.3391188587319796</v>
       </c>
       <c r="E7">
-        <v>0.9988392864168112</v>
+        <v>0.7056985277410432</v>
       </c>
       <c r="F7">
-        <v>0.9998110159479626</v>
+        <v>1.314528510999645</v>
       </c>
       <c r="G7">
-        <v>1.000807184992088</v>
+        <v>1.008132413861673</v>
       </c>
       <c r="H7">
-        <v>0.9991968932882501</v>
+        <v>0.01322715131637469</v>
       </c>
       <c r="I7">
-        <v>0.9991968932882501</v>
+        <v>0.01322715131637469</v>
       </c>
       <c r="J7">
-        <v>0.9999289249456498</v>
+        <v>2.105440819383835</v>
       </c>
       <c r="K7">
-        <v>0.9999289249456498</v>
+        <v>2.105440819383835</v>
       </c>
       <c r="L7">
-        <v>1.000807184992088</v>
+        <v>1.008132413861673</v>
       </c>
       <c r="M7">
-        <v>1.000002039140169</v>
+        <v>0.5106797825890239</v>
       </c>
       <c r="N7">
-        <v>1.000002039140169</v>
+        <v>0.5106797825890239</v>
       </c>
       <c r="O7">
-        <v>0.9999510009150634</v>
+        <v>0.4534928079700091</v>
       </c>
       <c r="P7">
-        <v>0.9999776677419959</v>
+        <v>1.042266794853961</v>
       </c>
       <c r="Q7">
-        <v>0.9999776677419959</v>
+        <v>1.042266794853961</v>
       </c>
       <c r="R7">
-        <v>0.9999654820429094</v>
+        <v>1.30806030098643</v>
       </c>
       <c r="S7">
-        <v>0.9999654820429094</v>
+        <v>1.30806030098643</v>
       </c>
       <c r="T7">
-        <v>0.999738705009269</v>
+        <v>0.9143577136724254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002016885767032</v>
+        <v>2.107725412396377</v>
       </c>
       <c r="D8">
-        <v>0.9991291660660127</v>
+        <v>0.3405662239675807</v>
       </c>
       <c r="E8">
-        <v>0.997873972454983</v>
+        <v>0.702232847065558</v>
       </c>
       <c r="F8">
-        <v>0.9993888099314353</v>
+        <v>1.311794207513939</v>
       </c>
       <c r="G8">
-        <v>1.001580172116485</v>
+        <v>1.009875850929275</v>
       </c>
       <c r="H8">
-        <v>0.9974021288008115</v>
+        <v>0.01379703088884988</v>
       </c>
       <c r="I8">
-        <v>0.9974021288008115</v>
+        <v>0.01379703088884988</v>
       </c>
       <c r="J8">
-        <v>1.002016885767032</v>
+        <v>2.107725412396377</v>
       </c>
       <c r="K8">
-        <v>1.002016885767032</v>
+        <v>2.107725412396377</v>
       </c>
       <c r="L8">
-        <v>1.001580172116485</v>
+        <v>1.009875850929275</v>
       </c>
       <c r="M8">
-        <v>0.9994911504586483</v>
+        <v>0.5118364409090627</v>
       </c>
       <c r="N8">
-        <v>0.9994911504586483</v>
+        <v>0.5118364409090627</v>
       </c>
       <c r="O8">
-        <v>0.9993704889944365</v>
+        <v>0.4547463685952353</v>
       </c>
       <c r="P8">
-        <v>1.000333062228109</v>
+        <v>1.043799431404834</v>
       </c>
       <c r="Q8">
-        <v>1.000333062228109</v>
+        <v>1.043799431404834</v>
       </c>
       <c r="R8">
-        <v>1.00075401811284</v>
+        <v>1.30978092665272</v>
       </c>
       <c r="S8">
-        <v>1.00075401811284</v>
+        <v>1.30978092665272</v>
       </c>
       <c r="T8">
-        <v>0.9995651891894598</v>
+        <v>0.9143319287935968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005676169878952</v>
+        <v>2.100878068821732</v>
       </c>
       <c r="D9">
-        <v>0.9995225508714896</v>
+        <v>0.3415774303507783</v>
       </c>
       <c r="E9">
-        <v>0.9954274433065273</v>
+        <v>0.7003731010346882</v>
       </c>
       <c r="F9">
-        <v>0.999021787146575</v>
+        <v>1.310327817442756</v>
       </c>
       <c r="G9">
-        <v>1.001107071936894</v>
+        <v>1.014475086524244</v>
       </c>
       <c r="H9">
-        <v>0.9969506605983721</v>
+        <v>0.01444663200720759</v>
       </c>
       <c r="I9">
-        <v>0.9969506605983721</v>
+        <v>0.01444663200720759</v>
       </c>
       <c r="J9">
-        <v>1.005676169878952</v>
+        <v>2.100878068821732</v>
       </c>
       <c r="K9">
-        <v>1.005676169878952</v>
+        <v>2.100878068821732</v>
       </c>
       <c r="L9">
-        <v>1.001107071936894</v>
+        <v>1.014475086524244</v>
       </c>
       <c r="M9">
-        <v>0.9990288662676332</v>
+        <v>0.5144608592657258</v>
       </c>
       <c r="N9">
-        <v>0.9990288662676332</v>
+        <v>0.5144608592657258</v>
       </c>
       <c r="O9">
-        <v>0.999193427802252</v>
+        <v>0.45683304962741</v>
       </c>
       <c r="P9">
-        <v>1.001244634138073</v>
+        <v>1.043266595784395</v>
       </c>
       <c r="Q9">
-        <v>1.001244634138073</v>
+        <v>1.043266595784394</v>
       </c>
       <c r="R9">
-        <v>1.002352518073292</v>
+        <v>1.307669464043729</v>
       </c>
       <c r="S9">
-        <v>1.002352518073292</v>
+        <v>1.307669464043729</v>
       </c>
       <c r="T9">
-        <v>0.9996176139564682</v>
+        <v>0.9136796893635674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.008188988467924</v>
+        <v>2.137968075269399</v>
       </c>
       <c r="D10">
-        <v>0.9986601295551208</v>
+        <v>0.3398014805519318</v>
       </c>
       <c r="E10">
-        <v>0.9912178333996947</v>
+        <v>0.6914853364453447</v>
       </c>
       <c r="F10">
-        <v>0.9979046683443046</v>
+        <v>1.301739160115809</v>
       </c>
       <c r="G10">
-        <v>1.003552189613114</v>
+        <v>1.014622201549913</v>
       </c>
       <c r="H10">
-        <v>0.9917196233154881</v>
+        <v>0.01548204581598457</v>
       </c>
       <c r="I10">
-        <v>0.9917196233154881</v>
+        <v>0.01548204581598457</v>
       </c>
       <c r="J10">
-        <v>1.008188988467924</v>
+        <v>2.137968075269399</v>
       </c>
       <c r="K10">
-        <v>1.008188988467924</v>
+        <v>2.137968075269399</v>
       </c>
       <c r="L10">
-        <v>1.003552189613114</v>
+        <v>1.014622201549913</v>
       </c>
       <c r="M10">
-        <v>0.997635906464301</v>
+        <v>0.5150521236829489</v>
       </c>
       <c r="N10">
-        <v>0.997635906464301</v>
+        <v>0.5150521236829489</v>
       </c>
       <c r="O10">
-        <v>0.997977314161241</v>
+        <v>0.4566352426392766</v>
       </c>
       <c r="P10">
-        <v>1.001153600465509</v>
+        <v>1.056024107545099</v>
       </c>
       <c r="Q10">
-        <v>1.001153600465509</v>
+        <v>1.056024107545099</v>
       </c>
       <c r="R10">
-        <v>1.002912447466112</v>
+        <v>1.326510099476174</v>
       </c>
       <c r="S10">
-        <v>1.002912447466112</v>
+        <v>1.326510099476174</v>
       </c>
       <c r="T10">
-        <v>0.998540572115941</v>
+        <v>0.9168497166247304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.024129878154946</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="D11">
-        <v>0.9976425313170845</v>
+        <v>1.012343714568237</v>
       </c>
       <c r="E11">
-        <v>0.982274832809247</v>
+        <v>0.9803591599205866</v>
       </c>
       <c r="F11">
-        <v>0.9960357561116367</v>
+        <v>0.9939732511170942</v>
       </c>
       <c r="G11">
-        <v>1.00230940933586</v>
+        <v>1.002137893454187</v>
       </c>
       <c r="H11">
-        <v>0.9848034862998278</v>
+        <v>0.9721956117989936</v>
       </c>
       <c r="I11">
-        <v>0.9848034862998278</v>
+        <v>0.9721956117989936</v>
       </c>
       <c r="J11">
-        <v>1.024129878154946</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="K11">
-        <v>1.024129878154946</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="L11">
-        <v>1.00230940933586</v>
+        <v>1.002137893454187</v>
       </c>
       <c r="M11">
-        <v>0.993556447817844</v>
+        <v>0.9871667526265905</v>
       </c>
       <c r="N11">
-        <v>0.993556447817844</v>
+        <v>0.9871667526265905</v>
       </c>
       <c r="O11">
-        <v>0.9949184756509242</v>
+        <v>0.9955590732738061</v>
       </c>
       <c r="P11">
-        <v>1.003747591263545</v>
+        <v>0.9926788686262121</v>
       </c>
       <c r="Q11">
-        <v>1.003747591263545</v>
+        <v>0.9926788686262121</v>
       </c>
       <c r="R11">
-        <v>1.008843162986395</v>
+        <v>0.995434926626023</v>
       </c>
       <c r="S11">
-        <v>1.008843162986395</v>
+        <v>0.995434926626023</v>
       </c>
       <c r="T11">
-        <v>0.9978659823381003</v>
+        <v>0.9941187885807592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.011437953484005</v>
+        <v>1.002489996812511</v>
       </c>
       <c r="D12">
-        <v>1.098858845123458</v>
+        <v>1.003242833915472</v>
       </c>
       <c r="E12">
-        <v>0.5443522046235768</v>
+        <v>0.9920939312032216</v>
       </c>
       <c r="F12">
-        <v>1.048333198550172</v>
+        <v>0.9982423886859461</v>
       </c>
       <c r="G12">
-        <v>1.170289252467368</v>
+        <v>1.004201528653067</v>
       </c>
       <c r="H12">
-        <v>0.6318281405954196</v>
+        <v>0.982598813857408</v>
       </c>
       <c r="I12">
-        <v>0.6318281405954196</v>
+        <v>0.982598813857408</v>
       </c>
       <c r="J12">
-        <v>1.011437953484005</v>
+        <v>1.002489996812511</v>
       </c>
       <c r="K12">
-        <v>1.011437953484005</v>
+        <v>1.002489996812511</v>
       </c>
       <c r="L12">
-        <v>1.170289252467368</v>
+        <v>1.004201528653067</v>
       </c>
       <c r="M12">
-        <v>0.9010586965313938</v>
+        <v>0.9934001712552376</v>
       </c>
       <c r="N12">
-        <v>0.9010586965313938</v>
+        <v>0.9934001712552376</v>
       </c>
       <c r="O12">
-        <v>0.966992079395415</v>
+        <v>0.9966810588086491</v>
       </c>
       <c r="P12">
-        <v>0.9378517821822644</v>
+        <v>0.9964301131076621</v>
       </c>
       <c r="Q12">
-        <v>0.9378517821822644</v>
+        <v>0.9964301131076621</v>
       </c>
       <c r="R12">
-        <v>0.9562483250076996</v>
+        <v>0.9979450840338743</v>
       </c>
       <c r="S12">
-        <v>0.9562483250076996</v>
+        <v>0.9979450840338743</v>
       </c>
       <c r="T12">
-        <v>0.9175165991406665</v>
+        <v>0.9971449155212709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.106737966520642</v>
+        <v>0.9995489273670282</v>
       </c>
       <c r="D13">
-        <v>0.9678898219812958</v>
+        <v>1.011636091965405</v>
       </c>
       <c r="E13">
-        <v>1.409996485763323</v>
+        <v>0.971088271744173</v>
       </c>
       <c r="F13">
-        <v>0.8927994789944967</v>
+        <v>0.9967052850907707</v>
       </c>
       <c r="G13">
-        <v>0.7270118182049549</v>
+        <v>1.015800209776746</v>
       </c>
       <c r="H13">
-        <v>1.403908533245268</v>
+        <v>0.9371681488630017</v>
       </c>
       <c r="I13">
-        <v>1.403908533245268</v>
+        <v>0.9371681488630017</v>
       </c>
       <c r="J13">
-        <v>1.106737966520642</v>
+        <v>0.9995489273670282</v>
       </c>
       <c r="K13">
-        <v>1.106737966520642</v>
+        <v>0.9995489273670282</v>
       </c>
       <c r="L13">
-        <v>0.7270118182049549</v>
+        <v>1.015800209776746</v>
       </c>
       <c r="M13">
-        <v>1.065460175725111</v>
+        <v>0.9764841793198739</v>
       </c>
       <c r="N13">
-        <v>1.065460175725111</v>
+        <v>0.9764841793198739</v>
       </c>
       <c r="O13">
-        <v>1.032936724477173</v>
+        <v>0.9882014835350509</v>
       </c>
       <c r="P13">
-        <v>1.079219439323622</v>
+        <v>0.9841724286689253</v>
       </c>
       <c r="Q13">
-        <v>1.079219439323622</v>
+        <v>0.9841724286689253</v>
       </c>
       <c r="R13">
-        <v>1.086099071122877</v>
+        <v>0.9880165533434511</v>
       </c>
       <c r="S13">
-        <v>1.086099071122877</v>
+        <v>0.9880165533434511</v>
       </c>
       <c r="T13">
-        <v>1.084724017451663</v>
+        <v>0.9886578224678542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1158970287474198</v>
+        <v>0.9918820862742875</v>
       </c>
       <c r="D14">
-        <v>1.284674495458042</v>
+        <v>1.035964455306132</v>
       </c>
       <c r="E14">
-        <v>2.03667086290952</v>
+        <v>0.9605329157356611</v>
       </c>
       <c r="F14">
-        <v>0.7350675742297492</v>
+        <v>0.9779867140447506</v>
       </c>
       <c r="G14">
-        <v>1.044449162517469</v>
+        <v>1.023933635215509</v>
       </c>
       <c r="H14">
-        <v>2.531627683444908</v>
+        <v>0.9235725011413778</v>
       </c>
       <c r="I14">
-        <v>2.531627683444908</v>
+        <v>0.9235725011413778</v>
       </c>
       <c r="J14">
-        <v>0.1158970287474198</v>
+        <v>0.9918820862742875</v>
       </c>
       <c r="K14">
-        <v>0.1158970287474198</v>
+        <v>0.9918820862742875</v>
       </c>
       <c r="L14">
-        <v>1.044449162517469</v>
+        <v>1.023933635215509</v>
       </c>
       <c r="M14">
-        <v>1.788038422981189</v>
+        <v>0.9737530681784432</v>
       </c>
       <c r="N14">
-        <v>1.788038422981189</v>
+        <v>0.9737530681784432</v>
       </c>
       <c r="O14">
-        <v>1.62025044714014</v>
+        <v>0.9944901972210062</v>
       </c>
       <c r="P14">
-        <v>1.230657958236599</v>
+        <v>0.9797960742103914</v>
       </c>
       <c r="Q14">
-        <v>1.230657958236599</v>
+        <v>0.9797960742103914</v>
       </c>
       <c r="R14">
-        <v>0.9519677258643042</v>
+        <v>0.9828175772263654</v>
       </c>
       <c r="S14">
-        <v>0.9519677258643042</v>
+        <v>0.9828175772263654</v>
       </c>
       <c r="T14">
-        <v>1.291397801217851</v>
+        <v>0.9856453846196197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.025911924069816</v>
+        <v>0.9978645593176652</v>
       </c>
       <c r="D15">
-        <v>0.9814836503684756</v>
+        <v>1.014267101176337</v>
       </c>
       <c r="E15">
-        <v>0.1609494115799943</v>
+        <v>0.9863447132558466</v>
       </c>
       <c r="F15">
-        <v>1.164495545096034</v>
+        <v>0.9918960300129768</v>
       </c>
       <c r="G15">
-        <v>1.138845284116459</v>
+        <v>1.007619265849764</v>
       </c>
       <c r="H15">
-        <v>0.3089585576332136</v>
+        <v>0.9704882145744513</v>
       </c>
       <c r="I15">
-        <v>0.3089585576332136</v>
+        <v>0.9704882145744513</v>
       </c>
       <c r="J15">
-        <v>1.025911924069816</v>
+        <v>0.9978645593176652</v>
       </c>
       <c r="K15">
-        <v>1.025911924069816</v>
+        <v>0.9978645593176652</v>
       </c>
       <c r="L15">
-        <v>1.138845284116459</v>
+        <v>1.007619265849764</v>
       </c>
       <c r="M15">
-        <v>0.7239019208748362</v>
+        <v>0.9890537402121079</v>
       </c>
       <c r="N15">
-        <v>0.7239019208748362</v>
+        <v>0.9890537402121079</v>
       </c>
       <c r="O15">
-        <v>0.809762497372716</v>
+        <v>0.9974581938668511</v>
       </c>
       <c r="P15">
-        <v>0.8245719219398294</v>
+        <v>0.9919906799139603</v>
       </c>
       <c r="Q15">
-        <v>0.8245719219398294</v>
+        <v>0.9919906799139603</v>
       </c>
       <c r="R15">
-        <v>0.874906922472326</v>
+        <v>0.9934591497648866</v>
       </c>
       <c r="S15">
-        <v>0.874906922472326</v>
+        <v>0.9934591497648866</v>
       </c>
       <c r="T15">
-        <v>0.7967740621439986</v>
+        <v>0.9947466473645069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9261575093786337</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="D16">
-        <v>1.256072325241125</v>
+        <v>1.027886684732099</v>
       </c>
       <c r="E16">
-        <v>0.7322227864014738</v>
+        <v>0.9723677375986084</v>
       </c>
       <c r="F16">
-        <v>0.8679067618438852</v>
+        <v>0.9853474614015215</v>
       </c>
       <c r="G16">
-        <v>1.112646480374174</v>
+        <v>1.012454104656298</v>
       </c>
       <c r="H16">
-        <v>0.5702012723498482</v>
+        <v>0.9466715101454211</v>
       </c>
       <c r="I16">
-        <v>0.5702012723498482</v>
+        <v>0.9466715101454211</v>
       </c>
       <c r="J16">
-        <v>0.9261575093786337</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="K16">
-        <v>0.9261575093786337</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="L16">
-        <v>1.112646480374174</v>
+        <v>1.012454104656298</v>
       </c>
       <c r="M16">
-        <v>0.841423876362011</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="N16">
-        <v>0.841423876362011</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="O16">
-        <v>0.9796400259883823</v>
+        <v>0.9956707665112727</v>
       </c>
       <c r="P16">
-        <v>0.8696684207008852</v>
+        <v>0.9854694609465757</v>
       </c>
       <c r="Q16">
-        <v>0.8696684207008852</v>
+        <v>0.9854694609465757</v>
       </c>
       <c r="R16">
-        <v>0.8837906928703224</v>
+        <v>0.9884227877194337</v>
       </c>
       <c r="S16">
-        <v>0.8837906928703224</v>
+        <v>0.9884227877194337</v>
       </c>
       <c r="T16">
-        <v>0.9108678559315232</v>
+        <v>0.9903350444286593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9155703300499539</v>
+        <v>0.9957060711868753</v>
       </c>
       <c r="D17">
-        <v>1.185187119112944</v>
+        <v>1.055126018523769</v>
       </c>
       <c r="E17">
-        <v>0.7815954441410369</v>
+        <v>0.9409609257501972</v>
       </c>
       <c r="F17">
-        <v>0.9053591356885938</v>
+        <v>0.9678783443915961</v>
       </c>
       <c r="G17">
-        <v>1.094579783781052</v>
+        <v>1.029935047685682</v>
       </c>
       <c r="H17">
-        <v>0.7086171501584344</v>
+        <v>0.8951761442182664</v>
       </c>
       <c r="I17">
-        <v>0.7086171501584344</v>
+        <v>0.8951761442182664</v>
       </c>
       <c r="J17">
-        <v>0.9155703300499539</v>
+        <v>0.9957060711868753</v>
       </c>
       <c r="K17">
-        <v>0.9155703300499539</v>
+        <v>0.9957060711868753</v>
       </c>
       <c r="L17">
-        <v>1.094579783781052</v>
+        <v>1.029935047685682</v>
       </c>
       <c r="M17">
-        <v>0.9015984669697433</v>
+        <v>0.962555595951974</v>
       </c>
       <c r="N17">
-        <v>0.9015984669697433</v>
+        <v>0.962555595951974</v>
       </c>
       <c r="O17">
-        <v>0.9961280176841436</v>
+        <v>0.9934124034759056</v>
       </c>
       <c r="P17">
-        <v>0.9062557546631469</v>
+        <v>0.9736057543636077</v>
       </c>
       <c r="Q17">
-        <v>0.9062557546631469</v>
+        <v>0.9736057543636077</v>
       </c>
       <c r="R17">
-        <v>0.9085843985098486</v>
+        <v>0.9791308335694247</v>
       </c>
       <c r="S17">
-        <v>0.9085843985098486</v>
+        <v>0.9791308335694247</v>
       </c>
       <c r="T17">
-        <v>0.9318181604886693</v>
+        <v>0.9807970919593975</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8995179284783758</v>
+        <v>1.055566741626367</v>
       </c>
       <c r="D18">
-        <v>1.043528871194565</v>
+        <v>1.108791490167515</v>
       </c>
       <c r="E18">
-        <v>0.8806747222859712</v>
+        <v>0.8840252345776642</v>
       </c>
       <c r="F18">
-        <v>0.9799724148950771</v>
+        <v>0.9159223522073929</v>
       </c>
       <c r="G18">
-        <v>1.056846402212026</v>
+        <v>1.08901399717285</v>
       </c>
       <c r="H18">
-        <v>0.9850084188125846</v>
+        <v>0.767580760039565</v>
       </c>
       <c r="I18">
-        <v>0.9850084188125846</v>
+        <v>0.767580760039565</v>
       </c>
       <c r="J18">
-        <v>0.8995179284783758</v>
+        <v>1.055566741626367</v>
       </c>
       <c r="K18">
-        <v>0.8995179284783758</v>
+        <v>1.055566741626367</v>
       </c>
       <c r="L18">
-        <v>1.056846402212026</v>
+        <v>1.08901399717285</v>
       </c>
       <c r="M18">
-        <v>1.020927410512305</v>
+        <v>0.9282973786062074</v>
       </c>
       <c r="N18">
-        <v>1.020927410512305</v>
+        <v>0.9282973786062074</v>
       </c>
       <c r="O18">
-        <v>1.028461230739725</v>
+        <v>0.9884620824599767</v>
       </c>
       <c r="P18">
-        <v>0.9804575831676621</v>
+        <v>0.9707204996129274</v>
       </c>
       <c r="Q18">
-        <v>0.9804575831676621</v>
+        <v>0.9707204996129274</v>
       </c>
       <c r="R18">
-        <v>0.9602226694953405</v>
+        <v>0.9919320601162873</v>
       </c>
       <c r="S18">
-        <v>0.9602226694953405</v>
+        <v>0.9919320601162873</v>
       </c>
       <c r="T18">
-        <v>0.9742581263131002</v>
+        <v>0.9701500959652257</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8003959060185304</v>
+        <v>0.9999289249456498</v>
       </c>
       <c r="D19">
-        <v>1.043251955070053</v>
+        <v>0.9998489244648524</v>
       </c>
       <c r="E19">
-        <v>0.8550655320240523</v>
+        <v>0.9988392864168112</v>
       </c>
       <c r="F19">
-        <v>0.9929812415502769</v>
+        <v>0.9998110159479626</v>
       </c>
       <c r="G19">
-        <v>1.12379416104604</v>
+        <v>1.000807184992088</v>
       </c>
       <c r="H19">
-        <v>0.8586186811352946</v>
+        <v>0.9991968932882501</v>
       </c>
       <c r="I19">
-        <v>0.8586186811352946</v>
+        <v>0.9991968932882501</v>
       </c>
       <c r="J19">
-        <v>0.8003959060185304</v>
+        <v>0.9999289249456498</v>
       </c>
       <c r="K19">
-        <v>0.8003959060185304</v>
+        <v>0.9999289249456498</v>
       </c>
       <c r="L19">
-        <v>1.12379416104604</v>
+        <v>1.000807184992088</v>
       </c>
       <c r="M19">
-        <v>0.9912064210906675</v>
+        <v>1.000002039140169</v>
       </c>
       <c r="N19">
-        <v>0.9912064210906675</v>
+        <v>1.000002039140169</v>
       </c>
       <c r="O19">
-        <v>1.008554932417129</v>
+        <v>0.9999510009150634</v>
       </c>
       <c r="P19">
-        <v>0.9276029160666218</v>
+        <v>0.9999776677419959</v>
       </c>
       <c r="Q19">
-        <v>0.9276029160666218</v>
+        <v>0.9999776677419959</v>
       </c>
       <c r="R19">
-        <v>0.8958011635545989</v>
+        <v>0.9999654820429094</v>
       </c>
       <c r="S19">
-        <v>0.8958011635545989</v>
+        <v>0.9999654820429094</v>
       </c>
       <c r="T19">
-        <v>0.9456845794740412</v>
+        <v>0.999738705009269</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9954162592545671</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="D20">
-        <v>0.9992203591548816</v>
+        <v>0.9991291660660127</v>
       </c>
       <c r="E20">
-        <v>1.003748034841161</v>
+        <v>0.997873972454983</v>
       </c>
       <c r="F20">
-        <v>0.9996322394661905</v>
+        <v>0.9993888099314353</v>
       </c>
       <c r="G20">
-        <v>1.000294222303959</v>
+        <v>1.001580172116485</v>
       </c>
       <c r="H20">
-        <v>1.000496977982101</v>
+        <v>0.9974021288008115</v>
       </c>
       <c r="I20">
-        <v>1.000496977982101</v>
+        <v>0.9974021288008115</v>
       </c>
       <c r="J20">
-        <v>0.9954162592545671</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="K20">
-        <v>0.9954162592545671</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="L20">
-        <v>1.000294222303959</v>
+        <v>1.001580172116485</v>
       </c>
       <c r="M20">
-        <v>1.00039560014303</v>
+        <v>0.9994911504586483</v>
       </c>
       <c r="N20">
-        <v>1.00039560014303</v>
+        <v>0.9994911504586483</v>
       </c>
       <c r="O20">
-        <v>1.000003853146981</v>
+        <v>0.9993704889944365</v>
       </c>
       <c r="P20">
-        <v>0.9987358198468758</v>
+        <v>1.000333062228109</v>
       </c>
       <c r="Q20">
-        <v>0.998735819846876</v>
+        <v>1.000333062228109</v>
       </c>
       <c r="R20">
-        <v>0.9979059296987988</v>
+        <v>1.00075401811284</v>
       </c>
       <c r="S20">
-        <v>0.9979059296987988</v>
+        <v>1.00075401811284</v>
       </c>
       <c r="T20">
-        <v>0.9998013488338101</v>
+        <v>0.9995651891894598</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00537011058927</v>
+        <v>1.005676169878952</v>
       </c>
       <c r="D21">
-        <v>1.001146247009219</v>
+        <v>0.9995225508714896</v>
       </c>
       <c r="E21">
-        <v>0.9914503966597796</v>
+        <v>0.9954274433065273</v>
       </c>
       <c r="F21">
-        <v>1.000526657186577</v>
+        <v>0.999021787146575</v>
       </c>
       <c r="G21">
-        <v>1.003019740754602</v>
+        <v>1.001107071936894</v>
       </c>
       <c r="H21">
-        <v>0.9973677007749975</v>
+        <v>0.9969506605983721</v>
       </c>
       <c r="I21">
-        <v>0.9973677007749975</v>
+        <v>0.9969506605983721</v>
       </c>
       <c r="J21">
-        <v>1.00537011058927</v>
+        <v>1.005676169878952</v>
       </c>
       <c r="K21">
-        <v>1.00537011058927</v>
+        <v>1.005676169878952</v>
       </c>
       <c r="L21">
-        <v>1.003019740754602</v>
+        <v>1.001107071936894</v>
       </c>
       <c r="M21">
-        <v>1.0001937207648</v>
+        <v>0.9990288662676332</v>
       </c>
       <c r="N21">
-        <v>1.0001937207648</v>
+        <v>0.9990288662676332</v>
       </c>
       <c r="O21">
-        <v>1.00051122951294</v>
+        <v>0.999193427802252</v>
       </c>
       <c r="P21">
-        <v>1.001919184039623</v>
+        <v>1.001244634138073</v>
       </c>
       <c r="Q21">
-        <v>1.001919184039623</v>
+        <v>1.001244634138073</v>
       </c>
       <c r="R21">
-        <v>1.002781915677035</v>
+        <v>1.002352518073292</v>
       </c>
       <c r="S21">
-        <v>1.002781915677035</v>
+        <v>1.002352518073292</v>
       </c>
       <c r="T21">
-        <v>0.999813475495741</v>
+        <v>0.9996176139564682</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9964649070109688</v>
+        <v>1.008188988467924</v>
       </c>
       <c r="D22">
-        <v>1.000168882744877</v>
+        <v>0.9986601295551208</v>
       </c>
       <c r="E22">
-        <v>1.008538322988289</v>
+        <v>0.9912178333996947</v>
       </c>
       <c r="F22">
-        <v>0.9943767541621281</v>
+        <v>0.9979046683443046</v>
       </c>
       <c r="G22">
-        <v>0.9963529138335054</v>
+        <v>1.003552189613114</v>
       </c>
       <c r="H22">
-        <v>0.9915094545540111</v>
+        <v>0.9917196233154881</v>
       </c>
       <c r="I22">
-        <v>0.9915094545540111</v>
+        <v>0.9917196233154881</v>
       </c>
       <c r="J22">
-        <v>0.9964649070109688</v>
+        <v>1.008188988467924</v>
       </c>
       <c r="K22">
-        <v>0.9964649070109688</v>
+        <v>1.008188988467924</v>
       </c>
       <c r="L22">
-        <v>0.9963529138335054</v>
+        <v>1.003552189613114</v>
       </c>
       <c r="M22">
-        <v>0.9939311841937583</v>
+        <v>0.997635906464301</v>
       </c>
       <c r="N22">
-        <v>0.9939311841937583</v>
+        <v>0.997635906464301</v>
       </c>
       <c r="O22">
-        <v>0.9960104170441312</v>
+        <v>0.997977314161241</v>
       </c>
       <c r="P22">
-        <v>0.9947757584661617</v>
+        <v>1.001153600465509</v>
       </c>
       <c r="Q22">
-        <v>0.9947757584661617</v>
+        <v>1.001153600465509</v>
       </c>
       <c r="R22">
-        <v>0.9951980456023635</v>
+        <v>1.002912447466112</v>
       </c>
       <c r="S22">
-        <v>0.9951980456023635</v>
+        <v>1.002912447466112</v>
       </c>
       <c r="T22">
-        <v>0.9979018725489633</v>
+        <v>0.998540572115941</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.024129878154946</v>
+      </c>
+      <c r="D23">
+        <v>0.9976425313170845</v>
+      </c>
+      <c r="E23">
+        <v>0.982274832809247</v>
+      </c>
+      <c r="F23">
+        <v>0.9960357561116367</v>
+      </c>
+      <c r="G23">
+        <v>1.00230940933586</v>
+      </c>
+      <c r="H23">
+        <v>0.9848034862998278</v>
+      </c>
+      <c r="I23">
+        <v>0.9848034862998278</v>
+      </c>
+      <c r="J23">
+        <v>1.024129878154946</v>
+      </c>
+      <c r="K23">
+        <v>1.024129878154946</v>
+      </c>
+      <c r="L23">
+        <v>1.00230940933586</v>
+      </c>
+      <c r="M23">
+        <v>0.993556447817844</v>
+      </c>
+      <c r="N23">
+        <v>0.993556447817844</v>
+      </c>
+      <c r="O23">
+        <v>0.9949184756509242</v>
+      </c>
+      <c r="P23">
+        <v>1.003747591263545</v>
+      </c>
+      <c r="Q23">
+        <v>1.003747591263545</v>
+      </c>
+      <c r="R23">
+        <v>1.008843162986395</v>
+      </c>
+      <c r="S23">
+        <v>1.008843162986395</v>
+      </c>
+      <c r="T23">
+        <v>0.9978659823381003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.011437953484005</v>
+      </c>
+      <c r="D24">
+        <v>1.098858845123458</v>
+      </c>
+      <c r="E24">
+        <v>0.5443522046235768</v>
+      </c>
+      <c r="F24">
+        <v>1.048333198550172</v>
+      </c>
+      <c r="G24">
+        <v>1.170289252467368</v>
+      </c>
+      <c r="H24">
+        <v>0.6318281405954196</v>
+      </c>
+      <c r="I24">
+        <v>0.6318281405954196</v>
+      </c>
+      <c r="J24">
+        <v>1.011437953484005</v>
+      </c>
+      <c r="K24">
+        <v>1.011437953484005</v>
+      </c>
+      <c r="L24">
+        <v>1.170289252467368</v>
+      </c>
+      <c r="M24">
+        <v>0.9010586965313938</v>
+      </c>
+      <c r="N24">
+        <v>0.9010586965313938</v>
+      </c>
+      <c r="O24">
+        <v>0.966992079395415</v>
+      </c>
+      <c r="P24">
+        <v>0.9378517821822644</v>
+      </c>
+      <c r="Q24">
+        <v>0.9378517821822644</v>
+      </c>
+      <c r="R24">
+        <v>0.9562483250076996</v>
+      </c>
+      <c r="S24">
+        <v>0.9562483250076996</v>
+      </c>
+      <c r="T24">
+        <v>0.9175165991406665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.106737966520642</v>
+      </c>
+      <c r="D25">
+        <v>0.9678898219812958</v>
+      </c>
+      <c r="E25">
+        <v>1.409996485763323</v>
+      </c>
+      <c r="F25">
+        <v>0.8927994789944967</v>
+      </c>
+      <c r="G25">
+        <v>0.7270118182049549</v>
+      </c>
+      <c r="H25">
+        <v>1.403908533245268</v>
+      </c>
+      <c r="I25">
+        <v>1.403908533245268</v>
+      </c>
+      <c r="J25">
+        <v>1.106737966520642</v>
+      </c>
+      <c r="K25">
+        <v>1.106737966520642</v>
+      </c>
+      <c r="L25">
+        <v>0.7270118182049549</v>
+      </c>
+      <c r="M25">
+        <v>1.065460175725111</v>
+      </c>
+      <c r="N25">
+        <v>1.065460175725111</v>
+      </c>
+      <c r="O25">
+        <v>1.032936724477173</v>
+      </c>
+      <c r="P25">
+        <v>1.079219439323622</v>
+      </c>
+      <c r="Q25">
+        <v>1.079219439323622</v>
+      </c>
+      <c r="R25">
+        <v>1.086099071122877</v>
+      </c>
+      <c r="S25">
+        <v>1.086099071122877</v>
+      </c>
+      <c r="T25">
+        <v>1.084724017451663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1158970287474198</v>
+      </c>
+      <c r="D26">
+        <v>1.284674495458042</v>
+      </c>
+      <c r="E26">
+        <v>2.03667086290952</v>
+      </c>
+      <c r="F26">
+        <v>0.7350675742297492</v>
+      </c>
+      <c r="G26">
+        <v>1.044449162517469</v>
+      </c>
+      <c r="H26">
+        <v>2.531627683444908</v>
+      </c>
+      <c r="I26">
+        <v>2.531627683444908</v>
+      </c>
+      <c r="J26">
+        <v>0.1158970287474198</v>
+      </c>
+      <c r="K26">
+        <v>0.1158970287474198</v>
+      </c>
+      <c r="L26">
+        <v>1.044449162517469</v>
+      </c>
+      <c r="M26">
+        <v>1.788038422981189</v>
+      </c>
+      <c r="N26">
+        <v>1.788038422981189</v>
+      </c>
+      <c r="O26">
+        <v>1.62025044714014</v>
+      </c>
+      <c r="P26">
+        <v>1.230657958236599</v>
+      </c>
+      <c r="Q26">
+        <v>1.230657958236599</v>
+      </c>
+      <c r="R26">
+        <v>0.9519677258643042</v>
+      </c>
+      <c r="S26">
+        <v>0.9519677258643042</v>
+      </c>
+      <c r="T26">
+        <v>1.291397801217851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.025911924069816</v>
+      </c>
+      <c r="D27">
+        <v>0.9814836503684756</v>
+      </c>
+      <c r="E27">
+        <v>0.1609494115799943</v>
+      </c>
+      <c r="F27">
+        <v>1.164495545096034</v>
+      </c>
+      <c r="G27">
+        <v>1.138845284116459</v>
+      </c>
+      <c r="H27">
+        <v>0.3089585576332136</v>
+      </c>
+      <c r="I27">
+        <v>0.3089585576332136</v>
+      </c>
+      <c r="J27">
+        <v>1.025911924069816</v>
+      </c>
+      <c r="K27">
+        <v>1.025911924069816</v>
+      </c>
+      <c r="L27">
+        <v>1.138845284116459</v>
+      </c>
+      <c r="M27">
+        <v>0.7239019208748362</v>
+      </c>
+      <c r="N27">
+        <v>0.7239019208748362</v>
+      </c>
+      <c r="O27">
+        <v>0.809762497372716</v>
+      </c>
+      <c r="P27">
+        <v>0.8245719219398294</v>
+      </c>
+      <c r="Q27">
+        <v>0.8245719219398294</v>
+      </c>
+      <c r="R27">
+        <v>0.874906922472326</v>
+      </c>
+      <c r="S27">
+        <v>0.874906922472326</v>
+      </c>
+      <c r="T27">
+        <v>0.7967740621439986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9261575093786337</v>
+      </c>
+      <c r="D28">
+        <v>1.256072325241125</v>
+      </c>
+      <c r="E28">
+        <v>0.7322227864014738</v>
+      </c>
+      <c r="F28">
+        <v>0.8679067618438852</v>
+      </c>
+      <c r="G28">
+        <v>1.112646480374174</v>
+      </c>
+      <c r="H28">
+        <v>0.5702012723498482</v>
+      </c>
+      <c r="I28">
+        <v>0.5702012723498482</v>
+      </c>
+      <c r="J28">
+        <v>0.9261575093786337</v>
+      </c>
+      <c r="K28">
+        <v>0.9261575093786337</v>
+      </c>
+      <c r="L28">
+        <v>1.112646480374174</v>
+      </c>
+      <c r="M28">
+        <v>0.841423876362011</v>
+      </c>
+      <c r="N28">
+        <v>0.841423876362011</v>
+      </c>
+      <c r="O28">
+        <v>0.9796400259883823</v>
+      </c>
+      <c r="P28">
+        <v>0.8696684207008852</v>
+      </c>
+      <c r="Q28">
+        <v>0.8696684207008852</v>
+      </c>
+      <c r="R28">
+        <v>0.8837906928703224</v>
+      </c>
+      <c r="S28">
+        <v>0.8837906928703224</v>
+      </c>
+      <c r="T28">
+        <v>0.9108678559315232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9155703300499539</v>
+      </c>
+      <c r="D29">
+        <v>1.185187119112944</v>
+      </c>
+      <c r="E29">
+        <v>0.7815954441410369</v>
+      </c>
+      <c r="F29">
+        <v>0.9053591356885938</v>
+      </c>
+      <c r="G29">
+        <v>1.094579783781052</v>
+      </c>
+      <c r="H29">
+        <v>0.7086171501584344</v>
+      </c>
+      <c r="I29">
+        <v>0.7086171501584344</v>
+      </c>
+      <c r="J29">
+        <v>0.9155703300499539</v>
+      </c>
+      <c r="K29">
+        <v>0.9155703300499539</v>
+      </c>
+      <c r="L29">
+        <v>1.094579783781052</v>
+      </c>
+      <c r="M29">
+        <v>0.9015984669697433</v>
+      </c>
+      <c r="N29">
+        <v>0.9015984669697433</v>
+      </c>
+      <c r="O29">
+        <v>0.9961280176841436</v>
+      </c>
+      <c r="P29">
+        <v>0.9062557546631469</v>
+      </c>
+      <c r="Q29">
+        <v>0.9062557546631469</v>
+      </c>
+      <c r="R29">
+        <v>0.9085843985098486</v>
+      </c>
+      <c r="S29">
+        <v>0.9085843985098486</v>
+      </c>
+      <c r="T29">
+        <v>0.9318181604886693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8995179284783758</v>
+      </c>
+      <c r="D30">
+        <v>1.043528871194565</v>
+      </c>
+      <c r="E30">
+        <v>0.8806747222859712</v>
+      </c>
+      <c r="F30">
+        <v>0.9799724148950771</v>
+      </c>
+      <c r="G30">
+        <v>1.056846402212026</v>
+      </c>
+      <c r="H30">
+        <v>0.9850084188125846</v>
+      </c>
+      <c r="I30">
+        <v>0.9850084188125846</v>
+      </c>
+      <c r="J30">
+        <v>0.8995179284783758</v>
+      </c>
+      <c r="K30">
+        <v>0.8995179284783758</v>
+      </c>
+      <c r="L30">
+        <v>1.056846402212026</v>
+      </c>
+      <c r="M30">
+        <v>1.020927410512305</v>
+      </c>
+      <c r="N30">
+        <v>1.020927410512305</v>
+      </c>
+      <c r="O30">
+        <v>1.028461230739725</v>
+      </c>
+      <c r="P30">
+        <v>0.9804575831676621</v>
+      </c>
+      <c r="Q30">
+        <v>0.9804575831676621</v>
+      </c>
+      <c r="R30">
+        <v>0.9602226694953405</v>
+      </c>
+      <c r="S30">
+        <v>0.9602226694953405</v>
+      </c>
+      <c r="T30">
+        <v>0.9742581263131002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8003959060185304</v>
+      </c>
+      <c r="D31">
+        <v>1.043251955070053</v>
+      </c>
+      <c r="E31">
+        <v>0.8550655320240523</v>
+      </c>
+      <c r="F31">
+        <v>0.9929812415502769</v>
+      </c>
+      <c r="G31">
+        <v>1.12379416104604</v>
+      </c>
+      <c r="H31">
+        <v>0.8586186811352946</v>
+      </c>
+      <c r="I31">
+        <v>0.8586186811352946</v>
+      </c>
+      <c r="J31">
+        <v>0.8003959060185304</v>
+      </c>
+      <c r="K31">
+        <v>0.8003959060185304</v>
+      </c>
+      <c r="L31">
+        <v>1.12379416104604</v>
+      </c>
+      <c r="M31">
+        <v>0.9912064210906675</v>
+      </c>
+      <c r="N31">
+        <v>0.9912064210906675</v>
+      </c>
+      <c r="O31">
+        <v>1.008554932417129</v>
+      </c>
+      <c r="P31">
+        <v>0.9276029160666218</v>
+      </c>
+      <c r="Q31">
+        <v>0.9276029160666218</v>
+      </c>
+      <c r="R31">
+        <v>0.8958011635545989</v>
+      </c>
+      <c r="S31">
+        <v>0.8958011635545989</v>
+      </c>
+      <c r="T31">
+        <v>0.9456845794740412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.029548125013698</v>
+      </c>
+      <c r="D32">
+        <v>1.309239001871233</v>
+      </c>
+      <c r="E32">
+        <v>0.6729816370534248</v>
+      </c>
+      <c r="F32">
+        <v>0.8272281469863015</v>
+      </c>
+      <c r="G32">
+        <v>1.115868307219178</v>
+      </c>
+      <c r="H32">
+        <v>0.4253371774501372</v>
+      </c>
+      <c r="I32">
+        <v>0.4253371774501372</v>
+      </c>
+      <c r="J32">
+        <v>1.029548125013698</v>
+      </c>
+      <c r="K32">
+        <v>1.029548125013698</v>
+      </c>
+      <c r="L32">
+        <v>1.115868307219178</v>
+      </c>
+      <c r="M32">
+        <v>0.7706027423346576</v>
+      </c>
+      <c r="N32">
+        <v>0.7706027423346576</v>
+      </c>
+      <c r="O32">
+        <v>0.9501481621801827</v>
+      </c>
+      <c r="P32">
+        <v>0.8569178698943379</v>
+      </c>
+      <c r="Q32">
+        <v>0.8569178698943379</v>
+      </c>
+      <c r="R32">
+        <v>0.9000754336741781</v>
+      </c>
+      <c r="S32">
+        <v>0.9000754336741781</v>
+      </c>
+      <c r="T32">
+        <v>0.8967003992656623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8670747460052634</v>
+      </c>
+      <c r="D33">
+        <v>0.5717743433421053</v>
+      </c>
+      <c r="E33">
+        <v>2.72325296568421</v>
+      </c>
+      <c r="F33">
+        <v>0.8331464163157896</v>
+      </c>
+      <c r="G33">
+        <v>1.181994534736842</v>
+      </c>
+      <c r="H33">
+        <v>1.719793534371579</v>
+      </c>
+      <c r="I33">
+        <v>1.719793534371579</v>
+      </c>
+      <c r="J33">
+        <v>0.8670747460052634</v>
+      </c>
+      <c r="K33">
+        <v>0.8670747460052634</v>
+      </c>
+      <c r="L33">
+        <v>1.181994534736842</v>
+      </c>
+      <c r="M33">
+        <v>1.450894034554211</v>
+      </c>
+      <c r="N33">
+        <v>1.450894034554211</v>
+      </c>
+      <c r="O33">
+        <v>1.157854137483509</v>
+      </c>
+      <c r="P33">
+        <v>1.256287605037895</v>
+      </c>
+      <c r="Q33">
+        <v>1.256287605037895</v>
+      </c>
+      <c r="R33">
+        <v>1.158984390279737</v>
+      </c>
+      <c r="S33">
+        <v>1.158984390279737</v>
+      </c>
+      <c r="T33">
+        <v>1.316172756742632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>2.081047593894737</v>
+      </c>
+      <c r="D34">
+        <v>0.3803015341578947</v>
+      </c>
+      <c r="E34">
+        <v>0.6365489921105264</v>
+      </c>
+      <c r="F34">
+        <v>1.263543085789474</v>
+      </c>
+      <c r="G34">
+        <v>1.044830667052632</v>
+      </c>
+      <c r="H34">
+        <v>0.0248413174536842</v>
+      </c>
+      <c r="I34">
+        <v>0.0248413174536842</v>
+      </c>
+      <c r="J34">
+        <v>2.081047593894737</v>
+      </c>
+      <c r="K34">
+        <v>2.081047593894737</v>
+      </c>
+      <c r="L34">
+        <v>1.044830667052632</v>
+      </c>
+      <c r="M34">
+        <v>0.5348359922531579</v>
+      </c>
+      <c r="N34">
+        <v>0.5348359922531579</v>
+      </c>
+      <c r="O34">
+        <v>0.4833245062214035</v>
+      </c>
+      <c r="P34">
+        <v>1.050239859467018</v>
+      </c>
+      <c r="Q34">
+        <v>1.050239859467018</v>
+      </c>
+      <c r="R34">
+        <v>1.307941793073947</v>
+      </c>
+      <c r="S34">
+        <v>1.307941793073947</v>
+      </c>
+      <c r="T34">
+        <v>0.9051855317431579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4529515606292489</v>
+      </c>
+      <c r="D35">
+        <v>0.9716816944457608</v>
+      </c>
+      <c r="E35">
+        <v>0.4543951524689331</v>
+      </c>
+      <c r="F35">
+        <v>0.9129756645693325</v>
+      </c>
+      <c r="G35">
+        <v>1.482690470317738</v>
+      </c>
+      <c r="H35">
+        <v>0.5847817094043973</v>
+      </c>
+      <c r="I35">
+        <v>0.5847817094043973</v>
+      </c>
+      <c r="J35">
+        <v>0.4529515606292489</v>
+      </c>
+      <c r="K35">
+        <v>0.4529515606292489</v>
+      </c>
+      <c r="L35">
+        <v>1.482690470317738</v>
+      </c>
+      <c r="M35">
+        <v>1.033736089861068</v>
+      </c>
+      <c r="N35">
+        <v>1.033736089861068</v>
+      </c>
+      <c r="O35">
+        <v>1.013051291389299</v>
+      </c>
+      <c r="P35">
+        <v>0.8401412467837949</v>
+      </c>
+      <c r="Q35">
+        <v>0.8401412467837949</v>
+      </c>
+      <c r="R35">
+        <v>0.7433438252451584</v>
+      </c>
+      <c r="S35">
+        <v>0.7433438252451584</v>
+      </c>
+      <c r="T35">
+        <v>0.8099127086392351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9954162592545671</v>
+      </c>
+      <c r="D36">
+        <v>0.9992203591548816</v>
+      </c>
+      <c r="E36">
+        <v>1.003748034841161</v>
+      </c>
+      <c r="F36">
+        <v>0.9996322394661905</v>
+      </c>
+      <c r="G36">
+        <v>1.000294222303959</v>
+      </c>
+      <c r="H36">
+        <v>1.000496977982101</v>
+      </c>
+      <c r="I36">
+        <v>1.000496977982101</v>
+      </c>
+      <c r="J36">
+        <v>0.9954162592545671</v>
+      </c>
+      <c r="K36">
+        <v>0.9954162592545671</v>
+      </c>
+      <c r="L36">
+        <v>1.000294222303959</v>
+      </c>
+      <c r="M36">
+        <v>1.00039560014303</v>
+      </c>
+      <c r="N36">
+        <v>1.00039560014303</v>
+      </c>
+      <c r="O36">
+        <v>1.000003853146981</v>
+      </c>
+      <c r="P36">
+        <v>0.9987358198468758</v>
+      </c>
+      <c r="Q36">
+        <v>0.998735819846876</v>
+      </c>
+      <c r="R36">
+        <v>0.9979059296987988</v>
+      </c>
+      <c r="S36">
+        <v>0.9979059296987988</v>
+      </c>
+      <c r="T36">
+        <v>0.9998013488338101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00537011058927</v>
+      </c>
+      <c r="D37">
+        <v>1.001146247009219</v>
+      </c>
+      <c r="E37">
+        <v>0.9914503966597796</v>
+      </c>
+      <c r="F37">
+        <v>1.000526657186577</v>
+      </c>
+      <c r="G37">
+        <v>1.003019740754602</v>
+      </c>
+      <c r="H37">
+        <v>0.9973677007749975</v>
+      </c>
+      <c r="I37">
+        <v>0.9973677007749975</v>
+      </c>
+      <c r="J37">
+        <v>1.00537011058927</v>
+      </c>
+      <c r="K37">
+        <v>1.00537011058927</v>
+      </c>
+      <c r="L37">
+        <v>1.003019740754602</v>
+      </c>
+      <c r="M37">
+        <v>1.0001937207648</v>
+      </c>
+      <c r="N37">
+        <v>1.0001937207648</v>
+      </c>
+      <c r="O37">
+        <v>1.00051122951294</v>
+      </c>
+      <c r="P37">
+        <v>1.001919184039623</v>
+      </c>
+      <c r="Q37">
+        <v>1.001919184039623</v>
+      </c>
+      <c r="R37">
+        <v>1.002781915677035</v>
+      </c>
+      <c r="S37">
+        <v>1.002781915677035</v>
+      </c>
+      <c r="T37">
+        <v>0.999813475495741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9964649070109688</v>
+      </c>
+      <c r="D38">
+        <v>1.000168882744877</v>
+      </c>
+      <c r="E38">
+        <v>1.008538322988289</v>
+      </c>
+      <c r="F38">
+        <v>0.9943767541621281</v>
+      </c>
+      <c r="G38">
+        <v>0.9963529138335054</v>
+      </c>
+      <c r="H38">
+        <v>0.9915094545540111</v>
+      </c>
+      <c r="I38">
+        <v>0.9915094545540111</v>
+      </c>
+      <c r="J38">
+        <v>0.9964649070109688</v>
+      </c>
+      <c r="K38">
+        <v>0.9964649070109688</v>
+      </c>
+      <c r="L38">
+        <v>0.9963529138335054</v>
+      </c>
+      <c r="M38">
+        <v>0.9939311841937583</v>
+      </c>
+      <c r="N38">
+        <v>0.9939311841937583</v>
+      </c>
+      <c r="O38">
+        <v>0.9960104170441312</v>
+      </c>
+      <c r="P38">
+        <v>0.9947757584661617</v>
+      </c>
+      <c r="Q38">
+        <v>0.9947757584661617</v>
+      </c>
+      <c r="R38">
+        <v>0.9951980456023635</v>
+      </c>
+      <c r="S38">
+        <v>0.9951980456023635</v>
+      </c>
+      <c r="T38">
+        <v>0.9979018725489633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9467397579547167</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.005696998184372</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.02062233735316</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9891594294424666</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.001251203764262</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9856182955431665</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9856182955431665</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9467397579547167</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9467397579547167</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001251203764262</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9934347496537145</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9934347496537145</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9975221658306005</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9778697524207152</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9778697524207152</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9700872538042156</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9700872538042156</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9915146703736907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.930850189831733</v>
+      </c>
+      <c r="D40">
+        <v>0.8319927302175413</v>
+      </c>
+      <c r="E40">
+        <v>1.501175366027569</v>
+      </c>
+      <c r="F40">
+        <v>1.042753385507203</v>
+      </c>
+      <c r="G40">
+        <v>1.086691845157564</v>
+      </c>
+      <c r="H40">
+        <v>0.827419615993798</v>
+      </c>
+      <c r="I40">
+        <v>0.827419615993798</v>
+      </c>
+      <c r="J40">
+        <v>0.930850189831733</v>
+      </c>
+      <c r="K40">
+        <v>0.930850189831733</v>
+      </c>
+      <c r="L40">
+        <v>1.086691845157564</v>
+      </c>
+      <c r="M40">
+        <v>0.9570557305756808</v>
+      </c>
+      <c r="N40">
+        <v>0.9570557305756808</v>
+      </c>
+      <c r="O40">
+        <v>0.9153680637896343</v>
+      </c>
+      <c r="P40">
+        <v>0.9483205503276982</v>
+      </c>
+      <c r="Q40">
+        <v>0.9483205503276982</v>
+      </c>
+      <c r="R40">
+        <v>0.9439529602037069</v>
+      </c>
+      <c r="S40">
+        <v>0.9439529602037069</v>
+      </c>
+      <c r="T40">
+        <v>1.036813855455901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.045142317340092</v>
+      </c>
+      <c r="D41">
+        <v>0.9919713297222162</v>
+      </c>
+      <c r="E41">
+        <v>0.9132911798352796</v>
+      </c>
+      <c r="F41">
+        <v>1.010523325973212</v>
+      </c>
+      <c r="G41">
+        <v>0.9986066565622916</v>
+      </c>
+      <c r="H41">
+        <v>0.9635366517723476</v>
+      </c>
+      <c r="I41">
+        <v>0.9635366517723476</v>
+      </c>
+      <c r="J41">
+        <v>1.045142317340092</v>
+      </c>
+      <c r="K41">
+        <v>1.045142317340092</v>
+      </c>
+      <c r="L41">
+        <v>0.9986066565622916</v>
+      </c>
+      <c r="M41">
+        <v>0.9810716541673197</v>
+      </c>
+      <c r="N41">
+        <v>0.9810716541673197</v>
+      </c>
+      <c r="O41">
+        <v>0.9847048793522851</v>
+      </c>
+      <c r="P41">
+        <v>1.002428541891577</v>
+      </c>
+      <c r="Q41">
+        <v>1.002428541891577</v>
+      </c>
+      <c r="R41">
+        <v>1.013106985753706</v>
+      </c>
+      <c r="S41">
+        <v>1.013106985753706</v>
+      </c>
+      <c r="T41">
+        <v>0.987178576867573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.5968682766276805</v>
+      </c>
+      <c r="D42">
+        <v>0.9977015261267269</v>
+      </c>
+      <c r="E42">
+        <v>1.196007245763846</v>
+      </c>
+      <c r="F42">
+        <v>1.002186142866244</v>
+      </c>
+      <c r="G42">
+        <v>1.233119654343024</v>
+      </c>
+      <c r="H42">
+        <v>1.223377515892518</v>
+      </c>
+      <c r="I42">
+        <v>1.223377515892518</v>
+      </c>
+      <c r="J42">
+        <v>0.5968682766276805</v>
+      </c>
+      <c r="K42">
+        <v>0.5968682766276805</v>
+      </c>
+      <c r="L42">
+        <v>1.233119654343024</v>
+      </c>
+      <c r="M42">
+        <v>1.228248585117771</v>
+      </c>
+      <c r="N42">
+        <v>1.228248585117771</v>
+      </c>
+      <c r="O42">
+        <v>1.15139956545409</v>
+      </c>
+      <c r="P42">
+        <v>1.017788482287741</v>
+      </c>
+      <c r="Q42">
+        <v>1.017788482287741</v>
+      </c>
+      <c r="R42">
+        <v>0.9125584308727257</v>
+      </c>
+      <c r="S42">
+        <v>0.9125584308727257</v>
+      </c>
+      <c r="T42">
+        <v>1.04154339360334</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9978645593176652</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="D3">
-        <v>0.9704882145744513</v>
+        <v>0.9991291660660127</v>
       </c>
       <c r="E3">
-        <v>1.007619265849764</v>
+        <v>0.997873972454983</v>
       </c>
       <c r="F3">
-        <v>0.9978645593176652</v>
+        <v>0.9993888099314353</v>
       </c>
       <c r="G3">
-        <v>0.9863447132558466</v>
+        <v>1.001580172116485</v>
       </c>
       <c r="H3">
-        <v>1.014267101176337</v>
+        <v>0.9974021288008115</v>
       </c>
       <c r="I3">
-        <v>0.991896030012977</v>
+        <v>0.9974021288008115</v>
       </c>
       <c r="J3">
-        <v>0.9704882145744513</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="K3">
-        <v>0.9978645593176652</v>
+        <v>1.002016885767032</v>
       </c>
       <c r="L3">
-        <v>1.007619265849764</v>
+        <v>1.001580172116485</v>
       </c>
       <c r="M3">
-        <v>0.9890537402121079</v>
+        <v>0.9994911504586483</v>
       </c>
       <c r="N3">
-        <v>0.9890537402121079</v>
+        <v>0.9994911504586483</v>
       </c>
       <c r="O3">
-        <v>0.9974581938668511</v>
+        <v>0.9993704889944365</v>
       </c>
       <c r="P3">
-        <v>0.9919906799139603</v>
+        <v>1.000333062228109</v>
       </c>
       <c r="Q3">
-        <v>0.9919906799139603</v>
+        <v>1.000333062228109</v>
       </c>
       <c r="R3">
-        <v>0.9934591497648866</v>
+        <v>1.00075401811284</v>
       </c>
       <c r="S3">
-        <v>0.9934591497648866</v>
+        <v>1.00075401811284</v>
       </c>
       <c r="T3">
-        <v>0.9947466473645069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9995651891894598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9972827680380077</v>
+        <v>0.930850189831733</v>
       </c>
       <c r="D4">
-        <v>0.9466715101454212</v>
+        <v>0.8319927302175413</v>
       </c>
       <c r="E4">
-        <v>1.012454104656298</v>
+        <v>1.501175366027569</v>
       </c>
       <c r="F4">
-        <v>0.9972827680380077</v>
+        <v>1.042753385507203</v>
       </c>
       <c r="G4">
-        <v>0.9723677375986084</v>
+        <v>1.086691845157564</v>
       </c>
       <c r="H4">
-        <v>1.027886684732099</v>
+        <v>0.827419615993798</v>
       </c>
       <c r="I4">
-        <v>0.9853474614015215</v>
+        <v>0.827419615993798</v>
       </c>
       <c r="J4">
-        <v>0.9466715101454212</v>
+        <v>0.930850189831733</v>
       </c>
       <c r="K4">
-        <v>0.9972827680380077</v>
+        <v>0.930850189831733</v>
       </c>
       <c r="L4">
-        <v>1.012454104656298</v>
+        <v>1.086691845157564</v>
       </c>
       <c r="M4">
-        <v>0.9795628074008598</v>
+        <v>0.9570557305756808</v>
       </c>
       <c r="N4">
-        <v>0.9795628074008598</v>
+        <v>0.9570557305756808</v>
       </c>
       <c r="O4">
-        <v>0.9956707665112727</v>
+        <v>0.9153680637896343</v>
       </c>
       <c r="P4">
-        <v>0.9854694609465757</v>
+        <v>0.9483205503276982</v>
       </c>
       <c r="Q4">
-        <v>0.9854694609465757</v>
+        <v>0.9483205503276982</v>
       </c>
       <c r="R4">
-        <v>0.9884227877194337</v>
+        <v>0.9439529602037069</v>
       </c>
       <c r="S4">
-        <v>0.9884227877194337</v>
+        <v>0.9439529602037069</v>
       </c>
       <c r="T4">
-        <v>0.9903350444286593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.036813855455901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9957060711868753</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="D5">
-        <v>0.8951761442182664</v>
+        <v>1.038180919065129</v>
       </c>
       <c r="E5">
-        <v>1.029935047685682</v>
+        <v>0.8527971155690325</v>
       </c>
       <c r="F5">
-        <v>0.9957060711868753</v>
+        <v>0.9778375471613805</v>
       </c>
       <c r="G5">
-        <v>0.9409609257501972</v>
+        <v>1.081165264652737</v>
       </c>
       <c r="H5">
-        <v>1.055126018523769</v>
+        <v>0.9413690536315692</v>
       </c>
       <c r="I5">
-        <v>0.9678783443915961</v>
+        <v>0.9413690536315692</v>
       </c>
       <c r="J5">
-        <v>0.8951761442182664</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="K5">
-        <v>0.9957060711868753</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="L5">
-        <v>1.029935047685682</v>
+        <v>1.081165264652737</v>
       </c>
       <c r="M5">
-        <v>0.962555595951974</v>
+        <v>1.011267159142153</v>
       </c>
       <c r="N5">
-        <v>0.962555595951974</v>
+        <v>1.011267159142153</v>
       </c>
       <c r="O5">
-        <v>0.9934124034759056</v>
+        <v>1.020238412449811</v>
       </c>
       <c r="P5">
-        <v>0.9736057543636077</v>
+        <v>0.9690240911607152</v>
       </c>
       <c r="Q5">
-        <v>0.9736057543636077</v>
+        <v>0.9690240911607152</v>
       </c>
       <c r="R5">
-        <v>0.9791308335694247</v>
+        <v>0.9479025571699964</v>
       </c>
       <c r="S5">
-        <v>0.9791308335694247</v>
+        <v>0.9479025571699964</v>
       </c>
       <c r="T5">
-        <v>0.9807970919593975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9626479758796145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.055566741626367</v>
+        <v>0.4529515606292489</v>
       </c>
       <c r="D6">
-        <v>0.767580760039565</v>
+        <v>0.9716816944457608</v>
       </c>
       <c r="E6">
-        <v>1.08901399717285</v>
+        <v>0.4543951524689331</v>
       </c>
       <c r="F6">
-        <v>1.055566741626367</v>
+        <v>0.9129756645693325</v>
       </c>
       <c r="G6">
-        <v>0.8840252345776642</v>
+        <v>1.482690470317738</v>
       </c>
       <c r="H6">
-        <v>1.108791490167515</v>
+        <v>0.5847817094043973</v>
       </c>
       <c r="I6">
-        <v>0.9159223522073928</v>
+        <v>0.5847817094043973</v>
       </c>
       <c r="J6">
-        <v>0.767580760039565</v>
+        <v>0.4529515606292489</v>
       </c>
       <c r="K6">
-        <v>1.055566741626367</v>
+        <v>0.4529515606292489</v>
       </c>
       <c r="L6">
-        <v>1.08901399717285</v>
+        <v>1.482690470317738</v>
       </c>
       <c r="M6">
-        <v>0.9282973786062074</v>
+        <v>1.033736089861068</v>
       </c>
       <c r="N6">
-        <v>0.9282973786062074</v>
+        <v>1.033736089861068</v>
       </c>
       <c r="O6">
-        <v>0.9884620824599767</v>
+        <v>1.013051291389299</v>
       </c>
       <c r="P6">
-        <v>0.9707204996129274</v>
+        <v>0.8401412467837949</v>
       </c>
       <c r="Q6">
-        <v>0.9707204996129274</v>
+        <v>0.8401412467837949</v>
       </c>
       <c r="R6">
-        <v>0.9919320601162873</v>
+        <v>0.7433438252451584</v>
       </c>
       <c r="S6">
-        <v>0.9919320601162873</v>
+        <v>0.7433438252451584</v>
       </c>
       <c r="T6">
-        <v>0.9701500959652257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.8099127086392351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999289249456503</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="D7">
-        <v>0.9991968932882501</v>
+        <v>1.012343714568237</v>
       </c>
       <c r="E7">
-        <v>1.000807184992088</v>
+        <v>0.9803591599205866</v>
       </c>
       <c r="F7">
-        <v>0.9999289249456503</v>
+        <v>0.9939732511170942</v>
       </c>
       <c r="G7">
-        <v>0.9988392864168121</v>
+        <v>1.002137893454187</v>
       </c>
       <c r="H7">
-        <v>0.9998489244648521</v>
+        <v>0.9721956117989936</v>
       </c>
       <c r="I7">
-        <v>0.9998110159479615</v>
+        <v>0.9721956117989936</v>
       </c>
       <c r="J7">
-        <v>0.9991968932882501</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="K7">
-        <v>0.9999289249456503</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="L7">
-        <v>1.000807184992088</v>
+        <v>1.002137893454187</v>
       </c>
       <c r="M7">
-        <v>1.000002039140169</v>
+        <v>0.9871667526265905</v>
       </c>
       <c r="N7">
-        <v>1.000002039140169</v>
+        <v>0.9871667526265905</v>
       </c>
       <c r="O7">
-        <v>0.9999510009150633</v>
+        <v>0.9955590732738061</v>
       </c>
       <c r="P7">
-        <v>0.9999776677419961</v>
+        <v>0.9926788686262121</v>
       </c>
       <c r="Q7">
-        <v>0.9999776677419961</v>
+        <v>0.9926788686262121</v>
       </c>
       <c r="R7">
-        <v>0.9999654820429097</v>
+        <v>0.995434926626023</v>
       </c>
       <c r="S7">
-        <v>0.9999654820429097</v>
+        <v>0.995434926626023</v>
       </c>
       <c r="T7">
-        <v>0.999738705009269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9941187885807592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002016885767033</v>
+        <v>1.00537011058927</v>
       </c>
       <c r="D8">
-        <v>0.9974021288008111</v>
+        <v>1.001146247009219</v>
       </c>
       <c r="E8">
-        <v>1.001580172116485</v>
+        <v>0.9914503966597796</v>
       </c>
       <c r="F8">
-        <v>1.002016885767033</v>
+        <v>1.000526657186577</v>
       </c>
       <c r="G8">
-        <v>0.997873972454983</v>
+        <v>1.003019740754602</v>
       </c>
       <c r="H8">
-        <v>0.9991291660660139</v>
+        <v>0.9973677007749975</v>
       </c>
       <c r="I8">
-        <v>0.9993888099314354</v>
+        <v>0.9973677007749975</v>
       </c>
       <c r="J8">
-        <v>0.9974021288008111</v>
+        <v>1.00537011058927</v>
       </c>
       <c r="K8">
-        <v>1.002016885767033</v>
+        <v>1.00537011058927</v>
       </c>
       <c r="L8">
-        <v>1.001580172116485</v>
+        <v>1.003019740754602</v>
       </c>
       <c r="M8">
-        <v>0.9994911504586479</v>
+        <v>1.0001937207648</v>
       </c>
       <c r="N8">
-        <v>0.9994911504586479</v>
+        <v>1.0001937207648</v>
       </c>
       <c r="O8">
-        <v>0.9993704889944365</v>
+        <v>1.00051122951294</v>
       </c>
       <c r="P8">
-        <v>1.000333062228109</v>
+        <v>1.001919184039623</v>
       </c>
       <c r="Q8">
-        <v>1.000333062228109</v>
+        <v>1.001919184039623</v>
       </c>
       <c r="R8">
-        <v>1.00075401811284</v>
+        <v>1.002781915677035</v>
       </c>
       <c r="S8">
-        <v>1.00075401811284</v>
+        <v>1.002781915677035</v>
       </c>
       <c r="T8">
-        <v>0.9995651891894601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.999813475495741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005676169878952</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="D9">
-        <v>0.9969506605983721</v>
+        <v>1.027886684732099</v>
       </c>
       <c r="E9">
-        <v>1.001107071936894</v>
+        <v>0.9723677375986084</v>
       </c>
       <c r="F9">
-        <v>1.005676169878952</v>
+        <v>0.9853474614015215</v>
       </c>
       <c r="G9">
-        <v>0.9954274433065273</v>
+        <v>1.012454104656298</v>
       </c>
       <c r="H9">
-        <v>0.9995225508714898</v>
+        <v>0.9466715101454211</v>
       </c>
       <c r="I9">
-        <v>0.999021787146575</v>
+        <v>0.9466715101454211</v>
       </c>
       <c r="J9">
-        <v>0.9969506605983721</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="K9">
-        <v>1.005676169878952</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="L9">
-        <v>1.001107071936894</v>
+        <v>1.012454104656298</v>
       </c>
       <c r="M9">
-        <v>0.999028866267633</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="N9">
-        <v>0.999028866267633</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="O9">
-        <v>0.999193427802252</v>
+        <v>0.9956707665112727</v>
       </c>
       <c r="P9">
-        <v>1.001244634138073</v>
+        <v>0.9854694609465757</v>
       </c>
       <c r="Q9">
-        <v>1.001244634138073</v>
+        <v>0.9854694609465757</v>
       </c>
       <c r="R9">
-        <v>1.002352518073292</v>
+        <v>0.9884227877194337</v>
       </c>
       <c r="S9">
-        <v>1.002352518073292</v>
+        <v>0.9884227877194337</v>
       </c>
       <c r="T9">
-        <v>0.9996176139564682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9903350444286593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.008188988467924</v>
+        <v>0.4094747863341602</v>
       </c>
       <c r="D10">
-        <v>0.9917196233154881</v>
+        <v>0.9738783755152638</v>
       </c>
       <c r="E10">
-        <v>1.003552189613114</v>
+        <v>0.4362823730403584</v>
       </c>
       <c r="F10">
-        <v>1.008188988467924</v>
+        <v>0.918255707046325</v>
       </c>
       <c r="G10">
-        <v>0.9912178333996947</v>
+        <v>1.511625044469716</v>
       </c>
       <c r="H10">
-        <v>0.9986601295551208</v>
+        <v>0.5220070433535537</v>
       </c>
       <c r="I10">
-        <v>0.9979046683443046</v>
+        <v>0.5220070433535537</v>
       </c>
       <c r="J10">
-        <v>0.9917196233154881</v>
+        <v>0.4094747863341602</v>
       </c>
       <c r="K10">
-        <v>1.008188988467924</v>
+        <v>0.4094747863341602</v>
       </c>
       <c r="L10">
-        <v>1.003552189613114</v>
+        <v>1.511625044469716</v>
       </c>
       <c r="M10">
-        <v>0.997635906464301</v>
+        <v>1.016816043911635</v>
       </c>
       <c r="N10">
-        <v>0.997635906464301</v>
+        <v>1.016816043911635</v>
       </c>
       <c r="O10">
-        <v>0.997977314161241</v>
+        <v>1.002503487779511</v>
       </c>
       <c r="P10">
-        <v>1.001153600465509</v>
+        <v>0.8143689580524766</v>
       </c>
       <c r="Q10">
-        <v>1.001153600465509</v>
+        <v>0.8143689580524766</v>
       </c>
       <c r="R10">
-        <v>1.002912447466113</v>
+        <v>0.7131454151228975</v>
       </c>
       <c r="S10">
-        <v>1.002912447466113</v>
+        <v>0.7131454151228975</v>
       </c>
       <c r="T10">
-        <v>0.998540572115941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.7952538882932295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.024129878154946</v>
+        <v>0.904420681329969</v>
       </c>
       <c r="D11">
-        <v>0.9848034862998281</v>
+        <v>0.8672604760063923</v>
       </c>
       <c r="E11">
-        <v>1.00230940933586</v>
+        <v>1.327177615545715</v>
       </c>
       <c r="F11">
-        <v>1.024129878154946</v>
+        <v>1.053539096492727</v>
       </c>
       <c r="G11">
-        <v>0.982274832809247</v>
+        <v>1.104316415997197</v>
       </c>
       <c r="H11">
-        <v>0.9976425313170842</v>
+        <v>0.8144815027116151</v>
       </c>
       <c r="I11">
-        <v>0.9960357561116365</v>
+        <v>0.8144815027116151</v>
       </c>
       <c r="J11">
-        <v>0.9848034862998281</v>
+        <v>0.904420681329969</v>
       </c>
       <c r="K11">
-        <v>1.024129878154946</v>
+        <v>0.904420681329969</v>
       </c>
       <c r="L11">
-        <v>1.00230940933586</v>
+        <v>1.104316415997197</v>
       </c>
       <c r="M11">
-        <v>0.9935564478178441</v>
+        <v>0.9593989593544059</v>
       </c>
       <c r="N11">
-        <v>0.9935564478178441</v>
+        <v>0.9593989593544059</v>
       </c>
       <c r="O11">
-        <v>0.9949184756509242</v>
+        <v>0.9286861315717347</v>
       </c>
       <c r="P11">
-        <v>1.003747591263545</v>
+        <v>0.9410728666795936</v>
       </c>
       <c r="Q11">
-        <v>1.003747591263545</v>
+        <v>0.9410728666795937</v>
       </c>
       <c r="R11">
-        <v>1.008843162986395</v>
+        <v>0.9319098203421875</v>
       </c>
       <c r="S11">
-        <v>1.008843162986395</v>
+        <v>0.9319098203421875</v>
       </c>
       <c r="T11">
-        <v>0.9978659823381003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.011865964680603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.011437953484005</v>
+        <v>0.8013370107037905</v>
       </c>
       <c r="D12">
-        <v>0.6318281405954196</v>
+        <v>1.028785279286317</v>
       </c>
       <c r="E12">
-        <v>1.170289252467368</v>
+        <v>0.8422443107421043</v>
       </c>
       <c r="F12">
-        <v>1.011437953484005</v>
+        <v>0.9867598729368406</v>
       </c>
       <c r="G12">
-        <v>0.5443522046235768</v>
+        <v>1.141049915124212</v>
       </c>
       <c r="H12">
-        <v>1.098858845123458</v>
+        <v>0.8197522624588551</v>
       </c>
       <c r="I12">
-        <v>1.048333198550172</v>
+        <v>0.8197522624588551</v>
       </c>
       <c r="J12">
-        <v>0.6318281405954196</v>
+        <v>0.8013370107037905</v>
       </c>
       <c r="K12">
-        <v>1.011437953484005</v>
+        <v>0.8013370107037905</v>
       </c>
       <c r="L12">
-        <v>1.170289252467368</v>
+        <v>1.141049915124212</v>
       </c>
       <c r="M12">
-        <v>0.9010586965313937</v>
+        <v>0.9804010887915336</v>
       </c>
       <c r="N12">
-        <v>0.9010586965313937</v>
+        <v>0.9804010887915336</v>
       </c>
       <c r="O12">
-        <v>0.966992079395415</v>
+        <v>0.9965291522897948</v>
       </c>
       <c r="P12">
-        <v>0.9378517821822641</v>
+        <v>0.9207130627622858</v>
       </c>
       <c r="Q12">
-        <v>0.9378517821822641</v>
+        <v>0.9207130627622858</v>
       </c>
       <c r="R12">
-        <v>0.9562483250076993</v>
+        <v>0.890869049747662</v>
       </c>
       <c r="S12">
-        <v>0.9562483250076993</v>
+        <v>0.890869049747662</v>
       </c>
       <c r="T12">
-        <v>0.9175165991406665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9366547752086865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.106737966520642</v>
+        <v>0.9369848344817087</v>
       </c>
       <c r="D13">
-        <v>1.403908533245268</v>
+        <v>0.9614006456125145</v>
       </c>
       <c r="E13">
-        <v>0.7270118182049549</v>
+        <v>1.053330107118244</v>
       </c>
       <c r="F13">
-        <v>1.106737966520642</v>
+        <v>1.038677537461548</v>
       </c>
       <c r="G13">
-        <v>1.409996485763323</v>
+        <v>1.060944070160649</v>
       </c>
       <c r="H13">
-        <v>0.9678898219812959</v>
+        <v>0.7614888769423773</v>
       </c>
       <c r="I13">
-        <v>0.892799478994497</v>
+        <v>0.7614888769423773</v>
       </c>
       <c r="J13">
-        <v>1.403908533245268</v>
+        <v>0.9369848344817087</v>
       </c>
       <c r="K13">
-        <v>1.106737966520642</v>
+        <v>0.9369848344817087</v>
       </c>
       <c r="L13">
-        <v>0.7270118182049549</v>
+        <v>1.060944070160649</v>
       </c>
       <c r="M13">
-        <v>1.065460175725111</v>
+        <v>0.9112164735515133</v>
       </c>
       <c r="N13">
-        <v>1.065460175725111</v>
+        <v>0.9112164735515133</v>
       </c>
       <c r="O13">
-        <v>1.032936724477173</v>
+        <v>0.9279445309051804</v>
       </c>
       <c r="P13">
-        <v>1.079219439323621</v>
+        <v>0.9198059271949117</v>
       </c>
       <c r="Q13">
-        <v>1.079219439323622</v>
+        <v>0.9198059271949117</v>
       </c>
       <c r="R13">
-        <v>1.086099071122877</v>
+        <v>0.924100654016611</v>
       </c>
       <c r="S13">
-        <v>1.086099071122877</v>
+        <v>0.924100654016611</v>
       </c>
       <c r="T13">
-        <v>1.084724017451663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9688043452961734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1158970287474199</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="D14">
-        <v>2.531627683444907</v>
+        <v>0.899618709999999</v>
       </c>
       <c r="E14">
-        <v>1.044449162517469</v>
+        <v>0.02438083299999998</v>
       </c>
       <c r="F14">
-        <v>0.1158970287474199</v>
+        <v>0.8443879100000014</v>
       </c>
       <c r="G14">
-        <v>2.03667086290952</v>
+        <v>1.908785100000002</v>
       </c>
       <c r="H14">
-        <v>1.284674495458041</v>
+        <v>0.1790270599999998</v>
       </c>
       <c r="I14">
-        <v>0.7350675742297493</v>
+        <v>0.1790270599999998</v>
       </c>
       <c r="J14">
-        <v>2.531627683444907</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="K14">
-        <v>0.1158970287474199</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="L14">
-        <v>1.044449162517469</v>
+        <v>1.908785100000002</v>
       </c>
       <c r="M14">
-        <v>1.788038422981188</v>
+        <v>1.043906080000001</v>
       </c>
       <c r="N14">
-        <v>1.788038422981188</v>
+        <v>1.043906080000001</v>
       </c>
       <c r="O14">
-        <v>1.620250447140139</v>
+        <v>0.9958102900000001</v>
       </c>
       <c r="P14">
-        <v>1.230657958236599</v>
+        <v>0.701178656666667</v>
       </c>
       <c r="Q14">
-        <v>1.230657958236599</v>
+        <v>0.701178656666667</v>
       </c>
       <c r="R14">
-        <v>0.951967725864304</v>
+        <v>0.5298149450000003</v>
       </c>
       <c r="S14">
-        <v>0.951967725864304</v>
+        <v>0.5298149450000003</v>
       </c>
       <c r="T14">
-        <v>1.291397801217851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.6453205705000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.025911924069816</v>
+        <v>7.6546011</v>
       </c>
       <c r="D15">
-        <v>0.3089585576332136</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="E15">
-        <v>1.138845284116459</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="F15">
-        <v>1.025911924069816</v>
+        <v>0.60377661</v>
       </c>
       <c r="G15">
-        <v>0.1609494115799943</v>
+        <v>0.026860481</v>
       </c>
       <c r="H15">
-        <v>0.9814836503684756</v>
+        <v>0.00064866866</v>
       </c>
       <c r="I15">
-        <v>1.164495545096034</v>
+        <v>0.00064866866</v>
       </c>
       <c r="J15">
-        <v>0.3089585576332136</v>
+        <v>7.6546011</v>
       </c>
       <c r="K15">
-        <v>1.025911924069816</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>1.138845284116459</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.7239019208748362</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N15">
-        <v>0.7239019208748362</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O15">
-        <v>0.809762497372716</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P15">
-        <v>0.8245719219398294</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q15">
-        <v>0.8245719219398294</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R15">
-        <v>0.874906922472326</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S15">
-        <v>0.874906922472326</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T15">
-        <v>0.7967740621439986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.391753247526667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9954162592545677</v>
+        <v>0.088158391</v>
       </c>
       <c r="D16">
-        <v>1.000496977982102</v>
+        <v>0.0014280189</v>
       </c>
       <c r="E16">
-        <v>1.00029422230396</v>
+        <v>5.7279292</v>
       </c>
       <c r="F16">
-        <v>0.9954162592545677</v>
+        <v>0.97725593</v>
       </c>
       <c r="G16">
-        <v>1.003748034841161</v>
+        <v>1.0899957</v>
       </c>
       <c r="H16">
-        <v>0.9992203591548816</v>
+        <v>0.002307472</v>
       </c>
       <c r="I16">
-        <v>0.9996322394661903</v>
+        <v>0.002307472</v>
       </c>
       <c r="J16">
-        <v>1.000496977982102</v>
+        <v>0.088158391</v>
       </c>
       <c r="K16">
-        <v>0.9954162592545677</v>
+        <v>0.088158391</v>
       </c>
       <c r="L16">
-        <v>1.00029422230396</v>
+        <v>1.0899957</v>
       </c>
       <c r="M16">
-        <v>1.000395600143031</v>
+        <v>0.546151586</v>
       </c>
       <c r="N16">
-        <v>1.000395600143031</v>
+        <v>0.546151586</v>
       </c>
       <c r="O16">
-        <v>1.000003853146981</v>
+        <v>0.3645770636333334</v>
       </c>
       <c r="P16">
-        <v>0.9987358198468765</v>
+        <v>0.3934871876666667</v>
       </c>
       <c r="Q16">
-        <v>0.9987358198468765</v>
+        <v>0.3934871876666666</v>
       </c>
       <c r="R16">
-        <v>0.9979059296987993</v>
+        <v>0.3171549885</v>
       </c>
       <c r="S16">
-        <v>0.9979059296987993</v>
+        <v>0.3171549885</v>
       </c>
       <c r="T16">
-        <v>0.9998013488338103</v>
+        <v>1.314512451983333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00537011058927</v>
+        <v>3.2863068</v>
       </c>
       <c r="D17">
-        <v>0.9973677007749979</v>
+        <v>0.074593489</v>
       </c>
       <c r="E17">
-        <v>1.003019740754602</v>
+        <v>0.36749083</v>
       </c>
       <c r="F17">
-        <v>1.00537011058927</v>
+        <v>1.2536574</v>
       </c>
       <c r="G17">
-        <v>0.9914503966597793</v>
+        <v>1.9441951</v>
       </c>
       <c r="H17">
-        <v>1.001146247009219</v>
+        <v>0.0019560143</v>
       </c>
       <c r="I17">
-        <v>1.000526657186577</v>
+        <v>0.0019560143</v>
       </c>
       <c r="J17">
-        <v>0.9973677007749979</v>
+        <v>3.2863068</v>
       </c>
       <c r="K17">
-        <v>1.00537011058927</v>
+        <v>3.2863068</v>
       </c>
       <c r="L17">
-        <v>1.003019740754602</v>
+        <v>1.9441951</v>
       </c>
       <c r="M17">
-        <v>1.0001937207648</v>
+        <v>0.9730755571499999</v>
       </c>
       <c r="N17">
-        <v>1.0001937207648</v>
+        <v>0.9730755571499999</v>
       </c>
       <c r="O17">
-        <v>1.000511229512939</v>
+        <v>0.6735815344333332</v>
       </c>
       <c r="P17">
-        <v>1.001919184039623</v>
+        <v>1.7441526381</v>
       </c>
       <c r="Q17">
-        <v>1.001919184039623</v>
+        <v>1.7441526381</v>
       </c>
       <c r="R17">
-        <v>1.002781915677035</v>
+        <v>2.129691178575</v>
       </c>
       <c r="S17">
-        <v>1.002781915677035</v>
+        <v>2.129691178575</v>
       </c>
       <c r="T17">
-        <v>0.9998134754957407</v>
+        <v>1.154699938883333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964649070109687</v>
+        <v>1.029548125013698</v>
       </c>
       <c r="D18">
-        <v>0.9915094545540114</v>
+        <v>1.309239001871233</v>
       </c>
       <c r="E18">
-        <v>0.9963529138335051</v>
+        <v>0.6729816370534248</v>
       </c>
       <c r="F18">
-        <v>0.9964649070109687</v>
+        <v>0.8272281469863015</v>
       </c>
       <c r="G18">
-        <v>1.00853832298829</v>
+        <v>1.115868307219178</v>
       </c>
       <c r="H18">
-        <v>1.000168882744877</v>
+        <v>0.4253371774501372</v>
       </c>
       <c r="I18">
-        <v>0.9943767541621288</v>
+        <v>0.4253371774501372</v>
       </c>
       <c r="J18">
-        <v>0.9915094545540114</v>
+        <v>1.029548125013698</v>
       </c>
       <c r="K18">
-        <v>0.9964649070109687</v>
+        <v>1.029548125013698</v>
       </c>
       <c r="L18">
-        <v>0.9963529138335051</v>
+        <v>1.115868307219178</v>
       </c>
       <c r="M18">
-        <v>0.9939311841937583</v>
+        <v>0.7706027423346576</v>
       </c>
       <c r="N18">
-        <v>0.9939311841937583</v>
+        <v>0.7706027423346576</v>
       </c>
       <c r="O18">
-        <v>0.9960104170441312</v>
+        <v>0.9501481621801827</v>
       </c>
       <c r="P18">
-        <v>0.9947757584661617</v>
+        <v>0.8569178698943379</v>
       </c>
       <c r="Q18">
-        <v>0.9947757584661617</v>
+        <v>0.8569178698943379</v>
       </c>
       <c r="R18">
-        <v>0.9951980456023635</v>
+        <v>0.9000754336741781</v>
       </c>
       <c r="S18">
-        <v>0.9951980456023635</v>
+        <v>0.9000754336741781</v>
       </c>
       <c r="T18">
-        <v>0.9979018725489635</v>
+        <v>0.8967003992656623</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9467397579547169</v>
+        <v>0.8670747460052634</v>
       </c>
       <c r="D19">
-        <v>0.9856182955431665</v>
+        <v>0.5717743433421053</v>
       </c>
       <c r="E19">
-        <v>1.001251203764262</v>
+        <v>2.72325296568421</v>
       </c>
       <c r="F19">
-        <v>0.9467397579547169</v>
+        <v>0.8331464163157896</v>
       </c>
       <c r="G19">
-        <v>1.02062233735316</v>
+        <v>1.181994534736842</v>
       </c>
       <c r="H19">
-        <v>1.005696998184372</v>
+        <v>1.719793534371579</v>
       </c>
       <c r="I19">
-        <v>0.9891594294424668</v>
+        <v>1.719793534371579</v>
       </c>
       <c r="J19">
-        <v>0.9856182955431665</v>
+        <v>0.8670747460052634</v>
       </c>
       <c r="K19">
-        <v>0.9467397579547169</v>
+        <v>0.8670747460052634</v>
       </c>
       <c r="L19">
-        <v>1.001251203764262</v>
+        <v>1.181994534736842</v>
       </c>
       <c r="M19">
-        <v>0.9934347496537145</v>
+        <v>1.450894034554211</v>
       </c>
       <c r="N19">
-        <v>0.9934347496537145</v>
+        <v>1.450894034554211</v>
       </c>
       <c r="O19">
-        <v>0.9975221658306005</v>
+        <v>1.157854137483509</v>
       </c>
       <c r="P19">
-        <v>0.9778697524207153</v>
+        <v>1.256287605037895</v>
       </c>
       <c r="Q19">
-        <v>0.9778697524207152</v>
+        <v>1.256287605037895</v>
       </c>
       <c r="R19">
-        <v>0.9700872538042156</v>
+        <v>1.158984390279737</v>
       </c>
       <c r="S19">
-        <v>0.9700872538042156</v>
+        <v>1.158984390279737</v>
       </c>
       <c r="T19">
-        <v>0.9915146703736907</v>
+        <v>1.316172756742632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.081047593894737</v>
+      </c>
+      <c r="D20">
+        <v>0.3803015341578947</v>
+      </c>
+      <c r="E20">
+        <v>0.6365489921105264</v>
+      </c>
+      <c r="F20">
+        <v>1.263543085789474</v>
+      </c>
+      <c r="G20">
+        <v>1.044830667052632</v>
+      </c>
+      <c r="H20">
+        <v>0.0248413174536842</v>
+      </c>
+      <c r="I20">
+        <v>0.0248413174536842</v>
+      </c>
+      <c r="J20">
+        <v>2.081047593894737</v>
+      </c>
+      <c r="K20">
+        <v>2.081047593894737</v>
+      </c>
+      <c r="L20">
+        <v>1.044830667052632</v>
+      </c>
+      <c r="M20">
+        <v>0.5348359922531579</v>
+      </c>
+      <c r="N20">
+        <v>0.5348359922531579</v>
+      </c>
+      <c r="O20">
+        <v>0.4833245062214035</v>
+      </c>
+      <c r="P20">
+        <v>1.050239859467018</v>
+      </c>
+      <c r="Q20">
+        <v>1.050239859467018</v>
+      </c>
+      <c r="R20">
+        <v>1.307941793073947</v>
+      </c>
+      <c r="S20">
+        <v>1.307941793073947</v>
+      </c>
+      <c r="T20">
+        <v>0.9051855317431579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1158970287474198</v>
+      </c>
+      <c r="D21">
+        <v>1.284674495458042</v>
+      </c>
+      <c r="E21">
+        <v>2.03667086290952</v>
+      </c>
+      <c r="F21">
+        <v>0.7350675742297492</v>
+      </c>
+      <c r="G21">
+        <v>1.044449162517469</v>
+      </c>
+      <c r="H21">
+        <v>2.531627683444908</v>
+      </c>
+      <c r="I21">
+        <v>2.531627683444908</v>
+      </c>
+      <c r="J21">
+        <v>0.1158970287474198</v>
+      </c>
+      <c r="K21">
+        <v>0.1158970287474198</v>
+      </c>
+      <c r="L21">
+        <v>1.044449162517469</v>
+      </c>
+      <c r="M21">
+        <v>1.788038422981189</v>
+      </c>
+      <c r="N21">
+        <v>1.788038422981189</v>
+      </c>
+      <c r="O21">
+        <v>1.62025044714014</v>
+      </c>
+      <c r="P21">
+        <v>1.230657958236599</v>
+      </c>
+      <c r="Q21">
+        <v>1.230657958236599</v>
+      </c>
+      <c r="R21">
+        <v>0.9519677258643042</v>
+      </c>
+      <c r="S21">
+        <v>0.9519677258643042</v>
+      </c>
+      <c r="T21">
+        <v>1.291397801217851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.025911924069816</v>
+      </c>
+      <c r="D22">
+        <v>0.9814836503684756</v>
+      </c>
+      <c r="E22">
+        <v>0.1609494115799943</v>
+      </c>
+      <c r="F22">
+        <v>1.164495545096034</v>
+      </c>
+      <c r="G22">
+        <v>1.138845284116459</v>
+      </c>
+      <c r="H22">
+        <v>0.3089585576332136</v>
+      </c>
+      <c r="I22">
+        <v>0.3089585576332136</v>
+      </c>
+      <c r="J22">
+        <v>1.025911924069816</v>
+      </c>
+      <c r="K22">
+        <v>1.025911924069816</v>
+      </c>
+      <c r="L22">
+        <v>1.138845284116459</v>
+      </c>
+      <c r="M22">
+        <v>0.7239019208748362</v>
+      </c>
+      <c r="N22">
+        <v>0.7239019208748362</v>
+      </c>
+      <c r="O22">
+        <v>0.809762497372716</v>
+      </c>
+      <c r="P22">
+        <v>0.8245719219398294</v>
+      </c>
+      <c r="Q22">
+        <v>0.8245719219398294</v>
+      </c>
+      <c r="R22">
+        <v>0.874906922472326</v>
+      </c>
+      <c r="S22">
+        <v>0.874906922472326</v>
+      </c>
+      <c r="T22">
+        <v>0.7967740621439986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.011437953484005</v>
+      </c>
+      <c r="D23">
+        <v>1.098858845123458</v>
+      </c>
+      <c r="E23">
+        <v>0.5443522046235768</v>
+      </c>
+      <c r="F23">
+        <v>1.048333198550172</v>
+      </c>
+      <c r="G23">
+        <v>1.170289252467368</v>
+      </c>
+      <c r="H23">
+        <v>0.6318281405954196</v>
+      </c>
+      <c r="I23">
+        <v>0.6318281405954196</v>
+      </c>
+      <c r="J23">
+        <v>1.011437953484005</v>
+      </c>
+      <c r="K23">
+        <v>1.011437953484005</v>
+      </c>
+      <c r="L23">
+        <v>1.170289252467368</v>
+      </c>
+      <c r="M23">
+        <v>0.9010586965313938</v>
+      </c>
+      <c r="N23">
+        <v>0.9010586965313938</v>
+      </c>
+      <c r="O23">
+        <v>0.966992079395415</v>
+      </c>
+      <c r="P23">
+        <v>0.9378517821822644</v>
+      </c>
+      <c r="Q23">
+        <v>0.9378517821822644</v>
+      </c>
+      <c r="R23">
+        <v>0.9562483250076996</v>
+      </c>
+      <c r="S23">
+        <v>0.9562483250076996</v>
+      </c>
+      <c r="T23">
+        <v>0.9175165991406665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.106737966520642</v>
+      </c>
+      <c r="D24">
+        <v>0.9678898219812958</v>
+      </c>
+      <c r="E24">
+        <v>1.409996485763323</v>
+      </c>
+      <c r="F24">
+        <v>0.8927994789944967</v>
+      </c>
+      <c r="G24">
+        <v>0.7270118182049549</v>
+      </c>
+      <c r="H24">
+        <v>1.403908533245268</v>
+      </c>
+      <c r="I24">
+        <v>1.403908533245268</v>
+      </c>
+      <c r="J24">
+        <v>1.106737966520642</v>
+      </c>
+      <c r="K24">
+        <v>1.106737966520642</v>
+      </c>
+      <c r="L24">
+        <v>0.7270118182049549</v>
+      </c>
+      <c r="M24">
+        <v>1.065460175725111</v>
+      </c>
+      <c r="N24">
+        <v>1.065460175725111</v>
+      </c>
+      <c r="O24">
+        <v>1.032936724477173</v>
+      </c>
+      <c r="P24">
+        <v>1.079219439323622</v>
+      </c>
+      <c r="Q24">
+        <v>1.079219439323622</v>
+      </c>
+      <c r="R24">
+        <v>1.086099071122877</v>
+      </c>
+      <c r="S24">
+        <v>1.086099071122877</v>
+      </c>
+      <c r="T24">
+        <v>1.084724017451663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2.526898304132813</v>
+      </c>
+      <c r="D25">
+        <v>0.3373476003871103</v>
+      </c>
+      <c r="E25">
+        <v>0.5923996266670247</v>
+      </c>
+      <c r="F25">
+        <v>1.276316880983664</v>
+      </c>
+      <c r="G25">
+        <v>0.7669363703194764</v>
+      </c>
+      <c r="H25">
+        <v>0.005374290360636204</v>
+      </c>
+      <c r="I25">
+        <v>0.005374290360636204</v>
+      </c>
+      <c r="J25">
+        <v>2.526898304132813</v>
+      </c>
+      <c r="K25">
+        <v>2.526898304132813</v>
+      </c>
+      <c r="L25">
+        <v>0.7669363703194764</v>
+      </c>
+      <c r="M25">
+        <v>0.3861553303400563</v>
+      </c>
+      <c r="N25">
+        <v>0.3861553303400563</v>
+      </c>
+      <c r="O25">
+        <v>0.3698860870224076</v>
+      </c>
+      <c r="P25">
+        <v>1.099736321604309</v>
+      </c>
+      <c r="Q25">
+        <v>1.099736321604309</v>
+      </c>
+      <c r="R25">
+        <v>1.456526817236435</v>
+      </c>
+      <c r="S25">
+        <v>1.456526817236435</v>
+      </c>
+      <c r="T25">
+        <v>0.9175455121417874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.3169687400456084</v>
+      </c>
+      <c r="D26">
+        <v>1.017255772435103</v>
+      </c>
+      <c r="E26">
+        <v>1.630122549434435</v>
+      </c>
+      <c r="F26">
+        <v>1.071647826578256</v>
+      </c>
+      <c r="G26">
+        <v>1.357444547809099</v>
+      </c>
+      <c r="H26">
+        <v>0.2979902394209792</v>
+      </c>
+      <c r="I26">
+        <v>0.2979902394209792</v>
+      </c>
+      <c r="J26">
+        <v>0.3169687400456084</v>
+      </c>
+      <c r="K26">
+        <v>0.3169687400456084</v>
+      </c>
+      <c r="L26">
+        <v>1.357444547809099</v>
+      </c>
+      <c r="M26">
+        <v>0.8277173936150389</v>
+      </c>
+      <c r="N26">
+        <v>0.8277173936150389</v>
+      </c>
+      <c r="O26">
+        <v>0.8908968532217271</v>
+      </c>
+      <c r="P26">
+        <v>0.6574678424252288</v>
+      </c>
+      <c r="Q26">
+        <v>0.6574678424252288</v>
+      </c>
+      <c r="R26">
+        <v>0.5723430668303237</v>
+      </c>
+      <c r="S26">
+        <v>0.5723430668303237</v>
+      </c>
+      <c r="T26">
+        <v>0.94857161262058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.506689002959595</v>
+      </c>
+      <c r="D27">
+        <v>0.6135279590372309</v>
+      </c>
+      <c r="E27">
+        <v>1.171956692277378</v>
+      </c>
+      <c r="F27">
+        <v>0.9661107633751319</v>
+      </c>
+      <c r="G27">
+        <v>0.7379205501847046</v>
+      </c>
+      <c r="H27">
+        <v>2.468541129897941</v>
+      </c>
+      <c r="I27">
+        <v>2.468541129897941</v>
+      </c>
+      <c r="J27">
+        <v>1.506689002959595</v>
+      </c>
+      <c r="K27">
+        <v>1.506689002959595</v>
+      </c>
+      <c r="L27">
+        <v>0.7379205501847046</v>
+      </c>
+      <c r="M27">
+        <v>1.603230840041323</v>
+      </c>
+      <c r="N27">
+        <v>1.603230840041323</v>
+      </c>
+      <c r="O27">
+        <v>1.273329879706625</v>
+      </c>
+      <c r="P27">
+        <v>1.571050227680747</v>
+      </c>
+      <c r="Q27">
+        <v>1.571050227680747</v>
+      </c>
+      <c r="R27">
+        <v>1.554959921500459</v>
+      </c>
+      <c r="S27">
+        <v>1.554959921500459</v>
+      </c>
+      <c r="T27">
+        <v>1.244124349621997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.19211960238182</v>
+      </c>
+      <c r="D28">
+        <v>1.040662595831358</v>
+      </c>
+      <c r="E28">
+        <v>0.932723837271339</v>
+      </c>
+      <c r="F28">
+        <v>0.9839404067228864</v>
+      </c>
+      <c r="G28">
+        <v>1.150057373860826</v>
+      </c>
+      <c r="H28">
+        <v>0.5514182959421122</v>
+      </c>
+      <c r="I28">
+        <v>0.5514182959421122</v>
+      </c>
+      <c r="J28">
+        <v>1.19211960238182</v>
+      </c>
+      <c r="K28">
+        <v>1.19211960238182</v>
+      </c>
+      <c r="L28">
+        <v>1.150057373860826</v>
+      </c>
+      <c r="M28">
+        <v>0.8507378349014689</v>
+      </c>
+      <c r="N28">
+        <v>0.8507378349014689</v>
+      </c>
+      <c r="O28">
+        <v>0.9140460885447653</v>
+      </c>
+      <c r="P28">
+        <v>0.9645317573949193</v>
+      </c>
+      <c r="Q28">
+        <v>0.9645317573949193</v>
+      </c>
+      <c r="R28">
+        <v>1.021428718641644</v>
+      </c>
+      <c r="S28">
+        <v>1.021428718641644</v>
+      </c>
+      <c r="T28">
+        <v>0.9751536853350569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.630076096036777</v>
+      </c>
+      <c r="D29">
+        <v>0.8407800463732087</v>
+      </c>
+      <c r="E29">
+        <v>0.8841524015091367</v>
+      </c>
+      <c r="F29">
+        <v>0.9900015121705052</v>
+      </c>
+      <c r="G29">
+        <v>0.8684897273854045</v>
+      </c>
+      <c r="H29">
+        <v>0.5195788717342054</v>
+      </c>
+      <c r="I29">
+        <v>0.5195788717342054</v>
+      </c>
+      <c r="J29">
+        <v>1.630076096036777</v>
+      </c>
+      <c r="K29">
+        <v>1.630076096036777</v>
+      </c>
+      <c r="L29">
+        <v>0.8684897273854045</v>
+      </c>
+      <c r="M29">
+        <v>0.694034299559805</v>
+      </c>
+      <c r="N29">
+        <v>0.694034299559805</v>
+      </c>
+      <c r="O29">
+        <v>0.7429495484976062</v>
+      </c>
+      <c r="P29">
+        <v>1.006048231718796</v>
+      </c>
+      <c r="Q29">
+        <v>1.006048231718796</v>
+      </c>
+      <c r="R29">
+        <v>1.162055197798291</v>
+      </c>
+      <c r="S29">
+        <v>1.162055197798291</v>
+      </c>
+      <c r="T29">
+        <v>0.9555131092015395</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.930850189831733</v>
+        <v>0.8689727132675712</v>
       </c>
       <c r="D4">
-        <v>0.8319927302175413</v>
+        <v>1.048319306020423</v>
       </c>
       <c r="E4">
-        <v>1.501175366027569</v>
+        <v>0.8860655177897188</v>
       </c>
       <c r="F4">
-        <v>1.042753385507203</v>
+        <v>0.980988259293802</v>
       </c>
       <c r="G4">
-        <v>1.086691845157564</v>
+        <v>1.063899431821663</v>
       </c>
       <c r="H4">
-        <v>0.827419615993798</v>
+        <v>0.9912232595365519</v>
       </c>
       <c r="I4">
-        <v>0.827419615993798</v>
+        <v>0.9912232595365519</v>
       </c>
       <c r="J4">
-        <v>0.930850189831733</v>
+        <v>0.8689727132675712</v>
       </c>
       <c r="K4">
-        <v>0.930850189831733</v>
+        <v>0.8689727132675712</v>
       </c>
       <c r="L4">
-        <v>1.086691845157564</v>
+        <v>1.063899431821663</v>
       </c>
       <c r="M4">
-        <v>0.9570557305756808</v>
+        <v>1.027561345679108</v>
       </c>
       <c r="N4">
-        <v>0.9570557305756808</v>
+        <v>1.027561345679108</v>
       </c>
       <c r="O4">
-        <v>0.9153680637896343</v>
+        <v>1.034480665792879</v>
       </c>
       <c r="P4">
-        <v>0.9483205503276982</v>
+        <v>0.9746984682085954</v>
       </c>
       <c r="Q4">
-        <v>0.9483205503276982</v>
+        <v>0.9746984682085955</v>
       </c>
       <c r="R4">
-        <v>0.9439529602037069</v>
+        <v>0.9482670294733394</v>
       </c>
       <c r="S4">
-        <v>0.9439529602037069</v>
+        <v>0.9482670294733394</v>
       </c>
       <c r="T4">
-        <v>1.036813855455901</v>
+        <v>0.9732447479549551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8845379551978401</v>
+        <v>2.107725412396377</v>
       </c>
       <c r="D5">
-        <v>1.038180919065129</v>
+        <v>0.3405662239675807</v>
       </c>
       <c r="E5">
-        <v>0.8527971155690325</v>
+        <v>0.702232847065558</v>
       </c>
       <c r="F5">
-        <v>0.9778375471613805</v>
+        <v>1.311794207513939</v>
       </c>
       <c r="G5">
-        <v>1.081165264652737</v>
+        <v>1.009875850929275</v>
       </c>
       <c r="H5">
-        <v>0.9413690536315692</v>
+        <v>0.01379703088884988</v>
       </c>
       <c r="I5">
-        <v>0.9413690536315692</v>
+        <v>0.01379703088884988</v>
       </c>
       <c r="J5">
-        <v>0.8845379551978401</v>
+        <v>2.107725412396377</v>
       </c>
       <c r="K5">
-        <v>0.8845379551978401</v>
+        <v>2.107725412396377</v>
       </c>
       <c r="L5">
-        <v>1.081165264652737</v>
+        <v>1.009875850929275</v>
       </c>
       <c r="M5">
-        <v>1.011267159142153</v>
+        <v>0.5118364409090627</v>
       </c>
       <c r="N5">
-        <v>1.011267159142153</v>
+        <v>0.5118364409090627</v>
       </c>
       <c r="O5">
-        <v>1.020238412449811</v>
+        <v>0.4547463685952353</v>
       </c>
       <c r="P5">
-        <v>0.9690240911607152</v>
+        <v>1.043799431404834</v>
       </c>
       <c r="Q5">
-        <v>0.9690240911607152</v>
+        <v>1.043799431404834</v>
       </c>
       <c r="R5">
-        <v>0.9479025571699964</v>
+        <v>1.30978092665272</v>
       </c>
       <c r="S5">
-        <v>0.9479025571699964</v>
+        <v>1.30978092665272</v>
       </c>
       <c r="T5">
-        <v>0.9626479758796145</v>
+        <v>0.9143319287935968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4529515606292489</v>
+        <v>0.930850189831733</v>
       </c>
       <c r="D6">
-        <v>0.9716816944457608</v>
+        <v>0.8319927302175413</v>
       </c>
       <c r="E6">
-        <v>0.4543951524689331</v>
+        <v>1.501175366027569</v>
       </c>
       <c r="F6">
-        <v>0.9129756645693325</v>
+        <v>1.042753385507203</v>
       </c>
       <c r="G6">
-        <v>1.482690470317738</v>
+        <v>1.086691845157564</v>
       </c>
       <c r="H6">
-        <v>0.5847817094043973</v>
+        <v>0.827419615993798</v>
       </c>
       <c r="I6">
-        <v>0.5847817094043973</v>
+        <v>0.827419615993798</v>
       </c>
       <c r="J6">
-        <v>0.4529515606292489</v>
+        <v>0.930850189831733</v>
       </c>
       <c r="K6">
-        <v>0.4529515606292489</v>
+        <v>0.930850189831733</v>
       </c>
       <c r="L6">
-        <v>1.482690470317738</v>
+        <v>1.086691845157564</v>
       </c>
       <c r="M6">
-        <v>1.033736089861068</v>
+        <v>0.9570557305756808</v>
       </c>
       <c r="N6">
-        <v>1.033736089861068</v>
+        <v>0.9570557305756808</v>
       </c>
       <c r="O6">
-        <v>1.013051291389299</v>
+        <v>0.9153680637896343</v>
       </c>
       <c r="P6">
-        <v>0.8401412467837949</v>
+        <v>0.9483205503276982</v>
       </c>
       <c r="Q6">
-        <v>0.8401412467837949</v>
+        <v>0.9483205503276982</v>
       </c>
       <c r="R6">
-        <v>0.7433438252451584</v>
+        <v>0.9439529602037069</v>
       </c>
       <c r="S6">
-        <v>0.7433438252451584</v>
+        <v>0.9439529602037069</v>
       </c>
       <c r="T6">
-        <v>0.8099127086392351</v>
+        <v>1.036813855455901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003703100625455</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="D7">
-        <v>1.012343714568237</v>
+        <v>1.038180919065129</v>
       </c>
       <c r="E7">
-        <v>0.9803591599205866</v>
+        <v>0.8527971155690325</v>
       </c>
       <c r="F7">
-        <v>0.9939732511170942</v>
+        <v>0.9778375471613805</v>
       </c>
       <c r="G7">
-        <v>1.002137893454187</v>
+        <v>1.081165264652737</v>
       </c>
       <c r="H7">
-        <v>0.9721956117989936</v>
+        <v>0.9413690536315692</v>
       </c>
       <c r="I7">
-        <v>0.9721956117989936</v>
+        <v>0.9413690536315692</v>
       </c>
       <c r="J7">
-        <v>1.003703100625455</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="K7">
-        <v>1.003703100625455</v>
+        <v>0.8845379551978401</v>
       </c>
       <c r="L7">
-        <v>1.002137893454187</v>
+        <v>1.081165264652737</v>
       </c>
       <c r="M7">
-        <v>0.9871667526265905</v>
+        <v>1.011267159142153</v>
       </c>
       <c r="N7">
-        <v>0.9871667526265905</v>
+        <v>1.011267159142153</v>
       </c>
       <c r="O7">
-        <v>0.9955590732738061</v>
+        <v>1.020238412449811</v>
       </c>
       <c r="P7">
-        <v>0.9926788686262121</v>
+        <v>0.9690240911607152</v>
       </c>
       <c r="Q7">
-        <v>0.9926788686262121</v>
+        <v>0.9690240911607152</v>
       </c>
       <c r="R7">
-        <v>0.995434926626023</v>
+        <v>0.9479025571699964</v>
       </c>
       <c r="S7">
-        <v>0.995434926626023</v>
+        <v>0.9479025571699964</v>
       </c>
       <c r="T7">
-        <v>0.9941187885807592</v>
+        <v>0.9626479758796145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00537011058927</v>
+        <v>0.4529515606292489</v>
       </c>
       <c r="D8">
-        <v>1.001146247009219</v>
+        <v>0.9716816944457608</v>
       </c>
       <c r="E8">
-        <v>0.9914503966597796</v>
+        <v>0.4543951524689331</v>
       </c>
       <c r="F8">
-        <v>1.000526657186577</v>
+        <v>0.9129756645693325</v>
       </c>
       <c r="G8">
-        <v>1.003019740754602</v>
+        <v>1.482690470317738</v>
       </c>
       <c r="H8">
-        <v>0.9973677007749975</v>
+        <v>0.5847817094043973</v>
       </c>
       <c r="I8">
-        <v>0.9973677007749975</v>
+        <v>0.5847817094043973</v>
       </c>
       <c r="J8">
-        <v>1.00537011058927</v>
+        <v>0.4529515606292489</v>
       </c>
       <c r="K8">
-        <v>1.00537011058927</v>
+        <v>0.4529515606292489</v>
       </c>
       <c r="L8">
-        <v>1.003019740754602</v>
+        <v>1.482690470317738</v>
       </c>
       <c r="M8">
-        <v>1.0001937207648</v>
+        <v>1.033736089861068</v>
       </c>
       <c r="N8">
-        <v>1.0001937207648</v>
+        <v>1.033736089861068</v>
       </c>
       <c r="O8">
-        <v>1.00051122951294</v>
+        <v>1.013051291389299</v>
       </c>
       <c r="P8">
-        <v>1.001919184039623</v>
+        <v>0.8401412467837949</v>
       </c>
       <c r="Q8">
-        <v>1.001919184039623</v>
+        <v>0.8401412467837949</v>
       </c>
       <c r="R8">
-        <v>1.002781915677035</v>
+        <v>0.7433438252451584</v>
       </c>
       <c r="S8">
-        <v>1.002781915677035</v>
+        <v>0.7433438252451584</v>
       </c>
       <c r="T8">
-        <v>0.999813475495741</v>
+        <v>0.8099127086392351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9972827680380077</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="D9">
-        <v>1.027886684732099</v>
+        <v>1.012343714568237</v>
       </c>
       <c r="E9">
-        <v>0.9723677375986084</v>
+        <v>0.9803591599205866</v>
       </c>
       <c r="F9">
-        <v>0.9853474614015215</v>
+        <v>0.9939732511170942</v>
       </c>
       <c r="G9">
-        <v>1.012454104656298</v>
+        <v>1.002137893454187</v>
       </c>
       <c r="H9">
-        <v>0.9466715101454211</v>
+        <v>0.9721956117989936</v>
       </c>
       <c r="I9">
-        <v>0.9466715101454211</v>
+        <v>0.9721956117989936</v>
       </c>
       <c r="J9">
-        <v>0.9972827680380077</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="K9">
-        <v>0.9972827680380077</v>
+        <v>1.003703100625455</v>
       </c>
       <c r="L9">
-        <v>1.012454104656298</v>
+        <v>1.002137893454187</v>
       </c>
       <c r="M9">
-        <v>0.9795628074008597</v>
+        <v>0.9871667526265905</v>
       </c>
       <c r="N9">
-        <v>0.9795628074008597</v>
+        <v>0.9871667526265905</v>
       </c>
       <c r="O9">
-        <v>0.9956707665112727</v>
+        <v>0.9955590732738061</v>
       </c>
       <c r="P9">
-        <v>0.9854694609465757</v>
+        <v>0.9926788686262121</v>
       </c>
       <c r="Q9">
-        <v>0.9854694609465757</v>
+        <v>0.9926788686262121</v>
       </c>
       <c r="R9">
-        <v>0.9884227877194337</v>
+        <v>0.995434926626023</v>
       </c>
       <c r="S9">
-        <v>0.9884227877194337</v>
+        <v>0.995434926626023</v>
       </c>
       <c r="T9">
-        <v>0.9903350444286593</v>
+        <v>0.9941187885807592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4094747863341602</v>
+        <v>1.00537011058927</v>
       </c>
       <c r="D10">
-        <v>0.9738783755152638</v>
+        <v>1.001146247009219</v>
       </c>
       <c r="E10">
-        <v>0.4362823730403584</v>
+        <v>0.9914503966597796</v>
       </c>
       <c r="F10">
-        <v>0.918255707046325</v>
+        <v>1.000526657186577</v>
       </c>
       <c r="G10">
-        <v>1.511625044469716</v>
+        <v>1.003019740754602</v>
       </c>
       <c r="H10">
-        <v>0.5220070433535537</v>
+        <v>0.9973677007749975</v>
       </c>
       <c r="I10">
-        <v>0.5220070433535537</v>
+        <v>0.9973677007749975</v>
       </c>
       <c r="J10">
-        <v>0.4094747863341602</v>
+        <v>1.00537011058927</v>
       </c>
       <c r="K10">
-        <v>0.4094747863341602</v>
+        <v>1.00537011058927</v>
       </c>
       <c r="L10">
-        <v>1.511625044469716</v>
+        <v>1.003019740754602</v>
       </c>
       <c r="M10">
-        <v>1.016816043911635</v>
+        <v>1.0001937207648</v>
       </c>
       <c r="N10">
-        <v>1.016816043911635</v>
+        <v>1.0001937207648</v>
       </c>
       <c r="O10">
-        <v>1.002503487779511</v>
+        <v>1.00051122951294</v>
       </c>
       <c r="P10">
-        <v>0.8143689580524766</v>
+        <v>1.001919184039623</v>
       </c>
       <c r="Q10">
-        <v>0.8143689580524766</v>
+        <v>1.001919184039623</v>
       </c>
       <c r="R10">
-        <v>0.7131454151228975</v>
+        <v>1.002781915677035</v>
       </c>
       <c r="S10">
-        <v>0.7131454151228975</v>
+        <v>1.002781915677035</v>
       </c>
       <c r="T10">
-        <v>0.7952538882932295</v>
+        <v>0.999813475495741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.904420681329969</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="D11">
-        <v>0.8672604760063923</v>
+        <v>1.027886684732099</v>
       </c>
       <c r="E11">
-        <v>1.327177615545715</v>
+        <v>0.9723677375986084</v>
       </c>
       <c r="F11">
-        <v>1.053539096492727</v>
+        <v>0.9853474614015215</v>
       </c>
       <c r="G11">
-        <v>1.104316415997197</v>
+        <v>1.012454104656298</v>
       </c>
       <c r="H11">
-        <v>0.8144815027116151</v>
+        <v>0.9466715101454211</v>
       </c>
       <c r="I11">
-        <v>0.8144815027116151</v>
+        <v>0.9466715101454211</v>
       </c>
       <c r="J11">
-        <v>0.904420681329969</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="K11">
-        <v>0.904420681329969</v>
+        <v>0.9972827680380077</v>
       </c>
       <c r="L11">
-        <v>1.104316415997197</v>
+        <v>1.012454104656298</v>
       </c>
       <c r="M11">
-        <v>0.9593989593544059</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="N11">
-        <v>0.9593989593544059</v>
+        <v>0.9795628074008597</v>
       </c>
       <c r="O11">
-        <v>0.9286861315717347</v>
+        <v>0.9956707665112727</v>
       </c>
       <c r="P11">
-        <v>0.9410728666795936</v>
+        <v>0.9854694609465757</v>
       </c>
       <c r="Q11">
-        <v>0.9410728666795937</v>
+        <v>0.9854694609465757</v>
       </c>
       <c r="R11">
-        <v>0.9319098203421875</v>
+        <v>0.9884227877194337</v>
       </c>
       <c r="S11">
-        <v>0.9319098203421875</v>
+        <v>0.9884227877194337</v>
       </c>
       <c r="T11">
-        <v>1.011865964680603</v>
+        <v>0.9903350444286593</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8013370107037905</v>
+        <v>0.4094747863341602</v>
       </c>
       <c r="D12">
-        <v>1.028785279286317</v>
+        <v>0.9738783755152638</v>
       </c>
       <c r="E12">
-        <v>0.8422443107421043</v>
+        <v>0.4362823730403584</v>
       </c>
       <c r="F12">
-        <v>0.9867598729368406</v>
+        <v>0.918255707046325</v>
       </c>
       <c r="G12">
-        <v>1.141049915124212</v>
+        <v>1.511625044469716</v>
       </c>
       <c r="H12">
-        <v>0.8197522624588551</v>
+        <v>0.5220070433535537</v>
       </c>
       <c r="I12">
-        <v>0.8197522624588551</v>
+        <v>0.5220070433535537</v>
       </c>
       <c r="J12">
-        <v>0.8013370107037905</v>
+        <v>0.4094747863341602</v>
       </c>
       <c r="K12">
-        <v>0.8013370107037905</v>
+        <v>0.4094747863341602</v>
       </c>
       <c r="L12">
-        <v>1.141049915124212</v>
+        <v>1.511625044469716</v>
       </c>
       <c r="M12">
-        <v>0.9804010887915336</v>
+        <v>1.016816043911635</v>
       </c>
       <c r="N12">
-        <v>0.9804010887915336</v>
+        <v>1.016816043911635</v>
       </c>
       <c r="O12">
-        <v>0.9965291522897948</v>
+        <v>1.002503487779511</v>
       </c>
       <c r="P12">
-        <v>0.9207130627622858</v>
+        <v>0.8143689580524766</v>
       </c>
       <c r="Q12">
-        <v>0.9207130627622858</v>
+        <v>0.8143689580524766</v>
       </c>
       <c r="R12">
-        <v>0.890869049747662</v>
+        <v>0.7131454151228975</v>
       </c>
       <c r="S12">
-        <v>0.890869049747662</v>
+        <v>0.7131454151228975</v>
       </c>
       <c r="T12">
-        <v>0.9366547752086865</v>
+        <v>0.7952538882932295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9369848344817087</v>
+        <v>0.904420681329969</v>
       </c>
       <c r="D13">
-        <v>0.9614006456125145</v>
+        <v>0.8672604760063923</v>
       </c>
       <c r="E13">
-        <v>1.053330107118244</v>
+        <v>1.327177615545715</v>
       </c>
       <c r="F13">
-        <v>1.038677537461548</v>
+        <v>1.053539096492727</v>
       </c>
       <c r="G13">
-        <v>1.060944070160649</v>
+        <v>1.104316415997197</v>
       </c>
       <c r="H13">
-        <v>0.7614888769423773</v>
+        <v>0.8144815027116151</v>
       </c>
       <c r="I13">
-        <v>0.7614888769423773</v>
+        <v>0.8144815027116151</v>
       </c>
       <c r="J13">
-        <v>0.9369848344817087</v>
+        <v>0.904420681329969</v>
       </c>
       <c r="K13">
-        <v>0.9369848344817087</v>
+        <v>0.904420681329969</v>
       </c>
       <c r="L13">
-        <v>1.060944070160649</v>
+        <v>1.104316415997197</v>
       </c>
       <c r="M13">
-        <v>0.9112164735515133</v>
+        <v>0.9593989593544059</v>
       </c>
       <c r="N13">
-        <v>0.9112164735515133</v>
+        <v>0.9593989593544059</v>
       </c>
       <c r="O13">
-        <v>0.9279445309051804</v>
+        <v>0.9286861315717347</v>
       </c>
       <c r="P13">
-        <v>0.9198059271949117</v>
+        <v>0.9410728666795936</v>
       </c>
       <c r="Q13">
-        <v>0.9198059271949117</v>
+        <v>0.9410728666795937</v>
       </c>
       <c r="R13">
-        <v>0.924100654016611</v>
+        <v>0.9319098203421875</v>
       </c>
       <c r="S13">
-        <v>0.924100654016611</v>
+        <v>0.9319098203421875</v>
       </c>
       <c r="T13">
-        <v>0.9688043452961734</v>
+        <v>1.011865964680603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.01572380999999999</v>
+        <v>0.8013370107037905</v>
       </c>
       <c r="D14">
-        <v>0.899618709999999</v>
+        <v>1.028785279286317</v>
       </c>
       <c r="E14">
-        <v>0.02438083299999998</v>
+        <v>0.8422443107421043</v>
       </c>
       <c r="F14">
-        <v>0.8443879100000014</v>
+        <v>0.9867598729368406</v>
       </c>
       <c r="G14">
-        <v>1.908785100000002</v>
+        <v>1.141049915124212</v>
       </c>
       <c r="H14">
-        <v>0.1790270599999998</v>
+        <v>0.8197522624588551</v>
       </c>
       <c r="I14">
-        <v>0.1790270599999998</v>
+        <v>0.8197522624588551</v>
       </c>
       <c r="J14">
-        <v>0.01572380999999999</v>
+        <v>0.8013370107037905</v>
       </c>
       <c r="K14">
-        <v>0.01572380999999999</v>
+        <v>0.8013370107037905</v>
       </c>
       <c r="L14">
-        <v>1.908785100000002</v>
+        <v>1.141049915124212</v>
       </c>
       <c r="M14">
-        <v>1.043906080000001</v>
+        <v>0.9804010887915336</v>
       </c>
       <c r="N14">
-        <v>1.043906080000001</v>
+        <v>0.9804010887915336</v>
       </c>
       <c r="O14">
-        <v>0.9958102900000001</v>
+        <v>0.9965291522897948</v>
       </c>
       <c r="P14">
-        <v>0.701178656666667</v>
+        <v>0.9207130627622858</v>
       </c>
       <c r="Q14">
-        <v>0.701178656666667</v>
+        <v>0.9207130627622858</v>
       </c>
       <c r="R14">
-        <v>0.5298149450000003</v>
+        <v>0.890869049747662</v>
       </c>
       <c r="S14">
-        <v>0.5298149450000003</v>
+        <v>0.890869049747662</v>
       </c>
       <c r="T14">
-        <v>0.6453205705000002</v>
+        <v>0.9366547752086865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.6546011</v>
+        <v>0.9369848344817087</v>
       </c>
       <c r="D15">
-        <v>0.05715137000000001</v>
+        <v>0.9614006456125145</v>
       </c>
       <c r="E15">
-        <v>0.007481255500000001</v>
+        <v>1.053330107118244</v>
       </c>
       <c r="F15">
-        <v>0.60377661</v>
+        <v>1.038677537461548</v>
       </c>
       <c r="G15">
-        <v>0.026860481</v>
+        <v>1.060944070160649</v>
       </c>
       <c r="H15">
-        <v>0.00064866866</v>
+        <v>0.7614888769423773</v>
       </c>
       <c r="I15">
-        <v>0.00064866866</v>
+        <v>0.7614888769423773</v>
       </c>
       <c r="J15">
-        <v>7.6546011</v>
+        <v>0.9369848344817087</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>0.9369848344817087</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>1.060944070160649</v>
       </c>
       <c r="M15">
-        <v>0.01375457483</v>
+        <v>0.9112164735515133</v>
       </c>
       <c r="N15">
-        <v>0.01375457483</v>
+        <v>0.9112164735515133</v>
       </c>
       <c r="O15">
-        <v>0.02822017322</v>
+        <v>0.9279445309051804</v>
       </c>
       <c r="P15">
-        <v>2.560703416553333</v>
+        <v>0.9198059271949117</v>
       </c>
       <c r="Q15">
-        <v>2.560703416553333</v>
+        <v>0.9198059271949117</v>
       </c>
       <c r="R15">
-        <v>3.834177837415</v>
+        <v>0.924100654016611</v>
       </c>
       <c r="S15">
-        <v>3.834177837415</v>
+        <v>0.924100654016611</v>
       </c>
       <c r="T15">
-        <v>1.391753247526667</v>
+        <v>0.9688043452961734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.088158391</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="D16">
-        <v>0.0014280189</v>
+        <v>0.899618709999999</v>
       </c>
       <c r="E16">
-        <v>5.7279292</v>
+        <v>0.02438083299999998</v>
       </c>
       <c r="F16">
-        <v>0.97725593</v>
+        <v>0.8443879100000014</v>
       </c>
       <c r="G16">
-        <v>1.0899957</v>
+        <v>1.908785100000002</v>
       </c>
       <c r="H16">
-        <v>0.002307472</v>
+        <v>0.1790270599999998</v>
       </c>
       <c r="I16">
-        <v>0.002307472</v>
+        <v>0.1790270599999998</v>
       </c>
       <c r="J16">
-        <v>0.088158391</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="K16">
-        <v>0.088158391</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="L16">
-        <v>1.0899957</v>
+        <v>1.908785100000002</v>
       </c>
       <c r="M16">
-        <v>0.546151586</v>
+        <v>1.043906080000001</v>
       </c>
       <c r="N16">
-        <v>0.546151586</v>
+        <v>1.043906080000001</v>
       </c>
       <c r="O16">
-        <v>0.3645770636333334</v>
+        <v>0.9958102900000001</v>
       </c>
       <c r="P16">
-        <v>0.3934871876666667</v>
+        <v>0.701178656666667</v>
       </c>
       <c r="Q16">
-        <v>0.3934871876666666</v>
+        <v>0.701178656666667</v>
       </c>
       <c r="R16">
-        <v>0.3171549885</v>
+        <v>0.5298149450000003</v>
       </c>
       <c r="S16">
-        <v>0.3171549885</v>
+        <v>0.5298149450000003</v>
       </c>
       <c r="T16">
-        <v>1.314512451983333</v>
+        <v>0.6453205705000002</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.2863068</v>
+        <v>7.6546011</v>
       </c>
       <c r="D17">
-        <v>0.074593489</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="E17">
-        <v>0.36749083</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="F17">
-        <v>1.2536574</v>
+        <v>0.60377661</v>
       </c>
       <c r="G17">
-        <v>1.9441951</v>
+        <v>0.026860481</v>
       </c>
       <c r="H17">
-        <v>0.0019560143</v>
+        <v>0.00064866866</v>
       </c>
       <c r="I17">
-        <v>0.0019560143</v>
+        <v>0.00064866866</v>
       </c>
       <c r="J17">
-        <v>3.2863068</v>
+        <v>7.6546011</v>
       </c>
       <c r="K17">
-        <v>3.2863068</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>1.9441951</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>0.9730755571499999</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N17">
-        <v>0.9730755571499999</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O17">
-        <v>0.6735815344333332</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P17">
-        <v>1.7441526381</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q17">
-        <v>1.7441526381</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R17">
-        <v>2.129691178575</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S17">
-        <v>2.129691178575</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T17">
-        <v>1.154699938883333</v>
+        <v>1.391753247526667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.029548125013698</v>
+        <v>0.088158391</v>
       </c>
       <c r="D18">
-        <v>1.309239001871233</v>
+        <v>0.0014280189</v>
       </c>
       <c r="E18">
-        <v>0.6729816370534248</v>
+        <v>5.7279292</v>
       </c>
       <c r="F18">
-        <v>0.8272281469863015</v>
+        <v>0.97725593</v>
       </c>
       <c r="G18">
-        <v>1.115868307219178</v>
+        <v>1.0899957</v>
       </c>
       <c r="H18">
-        <v>0.4253371774501372</v>
+        <v>0.002307472</v>
       </c>
       <c r="I18">
-        <v>0.4253371774501372</v>
+        <v>0.002307472</v>
       </c>
       <c r="J18">
-        <v>1.029548125013698</v>
+        <v>0.088158391</v>
       </c>
       <c r="K18">
-        <v>1.029548125013698</v>
+        <v>0.088158391</v>
       </c>
       <c r="L18">
-        <v>1.115868307219178</v>
+        <v>1.0899957</v>
       </c>
       <c r="M18">
-        <v>0.7706027423346576</v>
+        <v>0.546151586</v>
       </c>
       <c r="N18">
-        <v>0.7706027423346576</v>
+        <v>0.546151586</v>
       </c>
       <c r="O18">
-        <v>0.9501481621801827</v>
+        <v>0.3645770636333334</v>
       </c>
       <c r="P18">
-        <v>0.8569178698943379</v>
+        <v>0.3934871876666667</v>
       </c>
       <c r="Q18">
-        <v>0.8569178698943379</v>
+        <v>0.3934871876666666</v>
       </c>
       <c r="R18">
-        <v>0.9000754336741781</v>
+        <v>0.3171549885</v>
       </c>
       <c r="S18">
-        <v>0.9000754336741781</v>
+        <v>0.3171549885</v>
       </c>
       <c r="T18">
-        <v>0.8967003992656623</v>
+        <v>1.314512451983333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8670747460052634</v>
+        <v>3.2863068</v>
       </c>
       <c r="D19">
-        <v>0.5717743433421053</v>
+        <v>0.074593489</v>
       </c>
       <c r="E19">
-        <v>2.72325296568421</v>
+        <v>0.36749083</v>
       </c>
       <c r="F19">
-        <v>0.8331464163157896</v>
+        <v>1.2536574</v>
       </c>
       <c r="G19">
-        <v>1.181994534736842</v>
+        <v>1.9441951</v>
       </c>
       <c r="H19">
-        <v>1.719793534371579</v>
+        <v>0.0019560143</v>
       </c>
       <c r="I19">
-        <v>1.719793534371579</v>
+        <v>0.0019560143</v>
       </c>
       <c r="J19">
-        <v>0.8670747460052634</v>
+        <v>3.2863068</v>
       </c>
       <c r="K19">
-        <v>0.8670747460052634</v>
+        <v>3.2863068</v>
       </c>
       <c r="L19">
-        <v>1.181994534736842</v>
+        <v>1.9441951</v>
       </c>
       <c r="M19">
-        <v>1.450894034554211</v>
+        <v>0.9730755571499999</v>
       </c>
       <c r="N19">
-        <v>1.450894034554211</v>
+        <v>0.9730755571499999</v>
       </c>
       <c r="O19">
-        <v>1.157854137483509</v>
+        <v>0.6735815344333332</v>
       </c>
       <c r="P19">
-        <v>1.256287605037895</v>
+        <v>1.7441526381</v>
       </c>
       <c r="Q19">
-        <v>1.256287605037895</v>
+        <v>1.7441526381</v>
       </c>
       <c r="R19">
-        <v>1.158984390279737</v>
+        <v>2.129691178575</v>
       </c>
       <c r="S19">
-        <v>1.158984390279737</v>
+        <v>2.129691178575</v>
       </c>
       <c r="T19">
-        <v>1.316172756742632</v>
+        <v>1.154699938883333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.081047593894737</v>
+        <v>1.029548125013698</v>
       </c>
       <c r="D20">
-        <v>0.3803015341578947</v>
+        <v>1.309239001871233</v>
       </c>
       <c r="E20">
-        <v>0.6365489921105264</v>
+        <v>0.6729816370534248</v>
       </c>
       <c r="F20">
-        <v>1.263543085789474</v>
+        <v>0.8272281469863015</v>
       </c>
       <c r="G20">
-        <v>1.044830667052632</v>
+        <v>1.115868307219178</v>
       </c>
       <c r="H20">
-        <v>0.0248413174536842</v>
+        <v>0.4253371774501372</v>
       </c>
       <c r="I20">
-        <v>0.0248413174536842</v>
+        <v>0.4253371774501372</v>
       </c>
       <c r="J20">
-        <v>2.081047593894737</v>
+        <v>1.029548125013698</v>
       </c>
       <c r="K20">
-        <v>2.081047593894737</v>
+        <v>1.029548125013698</v>
       </c>
       <c r="L20">
-        <v>1.044830667052632</v>
+        <v>1.115868307219178</v>
       </c>
       <c r="M20">
-        <v>0.5348359922531579</v>
+        <v>0.7706027423346576</v>
       </c>
       <c r="N20">
-        <v>0.5348359922531579</v>
+        <v>0.7706027423346576</v>
       </c>
       <c r="O20">
-        <v>0.4833245062214035</v>
+        <v>0.9501481621801827</v>
       </c>
       <c r="P20">
-        <v>1.050239859467018</v>
+        <v>0.8569178698943379</v>
       </c>
       <c r="Q20">
-        <v>1.050239859467018</v>
+        <v>0.8569178698943379</v>
       </c>
       <c r="R20">
-        <v>1.307941793073947</v>
+        <v>0.9000754336741781</v>
       </c>
       <c r="S20">
-        <v>1.307941793073947</v>
+        <v>0.9000754336741781</v>
       </c>
       <c r="T20">
-        <v>0.9051855317431579</v>
+        <v>0.8967003992656623</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1158970287474198</v>
+        <v>0.8670747460052634</v>
       </c>
       <c r="D21">
-        <v>1.284674495458042</v>
+        <v>0.5717743433421053</v>
       </c>
       <c r="E21">
-        <v>2.03667086290952</v>
+        <v>2.72325296568421</v>
       </c>
       <c r="F21">
-        <v>0.7350675742297492</v>
+        <v>0.8331464163157896</v>
       </c>
       <c r="G21">
-        <v>1.044449162517469</v>
+        <v>1.181994534736842</v>
       </c>
       <c r="H21">
-        <v>2.531627683444908</v>
+        <v>1.719793534371579</v>
       </c>
       <c r="I21">
-        <v>2.531627683444908</v>
+        <v>1.719793534371579</v>
       </c>
       <c r="J21">
-        <v>0.1158970287474198</v>
+        <v>0.8670747460052634</v>
       </c>
       <c r="K21">
-        <v>0.1158970287474198</v>
+        <v>0.8670747460052634</v>
       </c>
       <c r="L21">
-        <v>1.044449162517469</v>
+        <v>1.181994534736842</v>
       </c>
       <c r="M21">
-        <v>1.788038422981189</v>
+        <v>1.450894034554211</v>
       </c>
       <c r="N21">
-        <v>1.788038422981189</v>
+        <v>1.450894034554211</v>
       </c>
       <c r="O21">
-        <v>1.62025044714014</v>
+        <v>1.157854137483509</v>
       </c>
       <c r="P21">
-        <v>1.230657958236599</v>
+        <v>1.256287605037895</v>
       </c>
       <c r="Q21">
-        <v>1.230657958236599</v>
+        <v>1.256287605037895</v>
       </c>
       <c r="R21">
-        <v>0.9519677258643042</v>
+        <v>1.158984390279737</v>
       </c>
       <c r="S21">
-        <v>0.9519677258643042</v>
+        <v>1.158984390279737</v>
       </c>
       <c r="T21">
-        <v>1.291397801217851</v>
+        <v>1.316172756742632</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.025911924069816</v>
+        <v>2.081047593894737</v>
       </c>
       <c r="D22">
-        <v>0.9814836503684756</v>
+        <v>0.3803015341578947</v>
       </c>
       <c r="E22">
-        <v>0.1609494115799943</v>
+        <v>0.6365489921105264</v>
       </c>
       <c r="F22">
-        <v>1.164495545096034</v>
+        <v>1.263543085789474</v>
       </c>
       <c r="G22">
-        <v>1.138845284116459</v>
+        <v>1.044830667052632</v>
       </c>
       <c r="H22">
-        <v>0.3089585576332136</v>
+        <v>0.0248413174536842</v>
       </c>
       <c r="I22">
-        <v>0.3089585576332136</v>
+        <v>0.0248413174536842</v>
       </c>
       <c r="J22">
-        <v>1.025911924069816</v>
+        <v>2.081047593894737</v>
       </c>
       <c r="K22">
-        <v>1.025911924069816</v>
+        <v>2.081047593894737</v>
       </c>
       <c r="L22">
-        <v>1.138845284116459</v>
+        <v>1.044830667052632</v>
       </c>
       <c r="M22">
-        <v>0.7239019208748362</v>
+        <v>0.5348359922531579</v>
       </c>
       <c r="N22">
-        <v>0.7239019208748362</v>
+        <v>0.5348359922531579</v>
       </c>
       <c r="O22">
-        <v>0.809762497372716</v>
+        <v>0.4833245062214035</v>
       </c>
       <c r="P22">
-        <v>0.8245719219398294</v>
+        <v>1.050239859467018</v>
       </c>
       <c r="Q22">
-        <v>0.8245719219398294</v>
+        <v>1.050239859467018</v>
       </c>
       <c r="R22">
-        <v>0.874906922472326</v>
+        <v>1.307941793073947</v>
       </c>
       <c r="S22">
-        <v>0.874906922472326</v>
+        <v>1.307941793073947</v>
       </c>
       <c r="T22">
-        <v>0.7967740621439986</v>
+        <v>0.9051855317431579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.011437953484005</v>
+        <v>0.1158970287474198</v>
       </c>
       <c r="D23">
-        <v>1.098858845123458</v>
+        <v>1.284674495458042</v>
       </c>
       <c r="E23">
-        <v>0.5443522046235768</v>
+        <v>2.03667086290952</v>
       </c>
       <c r="F23">
-        <v>1.048333198550172</v>
+        <v>0.7350675742297492</v>
       </c>
       <c r="G23">
-        <v>1.170289252467368</v>
+        <v>1.044449162517469</v>
       </c>
       <c r="H23">
-        <v>0.6318281405954196</v>
+        <v>2.531627683444908</v>
       </c>
       <c r="I23">
-        <v>0.6318281405954196</v>
+        <v>2.531627683444908</v>
       </c>
       <c r="J23">
-        <v>1.011437953484005</v>
+        <v>0.1158970287474198</v>
       </c>
       <c r="K23">
-        <v>1.011437953484005</v>
+        <v>0.1158970287474198</v>
       </c>
       <c r="L23">
-        <v>1.170289252467368</v>
+        <v>1.044449162517469</v>
       </c>
       <c r="M23">
-        <v>0.9010586965313938</v>
+        <v>1.788038422981189</v>
       </c>
       <c r="N23">
-        <v>0.9010586965313938</v>
+        <v>1.788038422981189</v>
       </c>
       <c r="O23">
-        <v>0.966992079395415</v>
+        <v>1.62025044714014</v>
       </c>
       <c r="P23">
-        <v>0.9378517821822644</v>
+        <v>1.230657958236599</v>
       </c>
       <c r="Q23">
-        <v>0.9378517821822644</v>
+        <v>1.230657958236599</v>
       </c>
       <c r="R23">
-        <v>0.9562483250076996</v>
+        <v>0.9519677258643042</v>
       </c>
       <c r="S23">
-        <v>0.9562483250076996</v>
+        <v>0.9519677258643042</v>
       </c>
       <c r="T23">
-        <v>0.9175165991406665</v>
+        <v>1.291397801217851</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.106737966520642</v>
+        <v>1.025911924069816</v>
       </c>
       <c r="D24">
-        <v>0.9678898219812958</v>
+        <v>0.9814836503684756</v>
       </c>
       <c r="E24">
-        <v>1.409996485763323</v>
+        <v>0.1609494115799943</v>
       </c>
       <c r="F24">
-        <v>0.8927994789944967</v>
+        <v>1.164495545096034</v>
       </c>
       <c r="G24">
-        <v>0.7270118182049549</v>
+        <v>1.138845284116459</v>
       </c>
       <c r="H24">
-        <v>1.403908533245268</v>
+        <v>0.3089585576332136</v>
       </c>
       <c r="I24">
-        <v>1.403908533245268</v>
+        <v>0.3089585576332136</v>
       </c>
       <c r="J24">
-        <v>1.106737966520642</v>
+        <v>1.025911924069816</v>
       </c>
       <c r="K24">
-        <v>1.106737966520642</v>
+        <v>1.025911924069816</v>
       </c>
       <c r="L24">
-        <v>0.7270118182049549</v>
+        <v>1.138845284116459</v>
       </c>
       <c r="M24">
-        <v>1.065460175725111</v>
+        <v>0.7239019208748362</v>
       </c>
       <c r="N24">
-        <v>1.065460175725111</v>
+        <v>0.7239019208748362</v>
       </c>
       <c r="O24">
-        <v>1.032936724477173</v>
+        <v>0.809762497372716</v>
       </c>
       <c r="P24">
-        <v>1.079219439323622</v>
+        <v>0.8245719219398294</v>
       </c>
       <c r="Q24">
-        <v>1.079219439323622</v>
+        <v>0.8245719219398294</v>
       </c>
       <c r="R24">
-        <v>1.086099071122877</v>
+        <v>0.874906922472326</v>
       </c>
       <c r="S24">
-        <v>1.086099071122877</v>
+        <v>0.874906922472326</v>
       </c>
       <c r="T24">
-        <v>1.084724017451663</v>
+        <v>0.7967740621439986</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.526898304132813</v>
+        <v>1.011437953484005</v>
       </c>
       <c r="D25">
-        <v>0.3373476003871103</v>
+        <v>1.098858845123458</v>
       </c>
       <c r="E25">
-        <v>0.5923996266670247</v>
+        <v>0.5443522046235768</v>
       </c>
       <c r="F25">
-        <v>1.276316880983664</v>
+        <v>1.048333198550172</v>
       </c>
       <c r="G25">
-        <v>0.7669363703194764</v>
+        <v>1.170289252467368</v>
       </c>
       <c r="H25">
-        <v>0.005374290360636204</v>
+        <v>0.6318281405954196</v>
       </c>
       <c r="I25">
-        <v>0.005374290360636204</v>
+        <v>0.6318281405954196</v>
       </c>
       <c r="J25">
-        <v>2.526898304132813</v>
+        <v>1.011437953484005</v>
       </c>
       <c r="K25">
-        <v>2.526898304132813</v>
+        <v>1.011437953484005</v>
       </c>
       <c r="L25">
-        <v>0.7669363703194764</v>
+        <v>1.170289252467368</v>
       </c>
       <c r="M25">
-        <v>0.3861553303400563</v>
+        <v>0.9010586965313938</v>
       </c>
       <c r="N25">
-        <v>0.3861553303400563</v>
+        <v>0.9010586965313938</v>
       </c>
       <c r="O25">
-        <v>0.3698860870224076</v>
+        <v>0.966992079395415</v>
       </c>
       <c r="P25">
-        <v>1.099736321604309</v>
+        <v>0.9378517821822644</v>
       </c>
       <c r="Q25">
-        <v>1.099736321604309</v>
+        <v>0.9378517821822644</v>
       </c>
       <c r="R25">
-        <v>1.456526817236435</v>
+        <v>0.9562483250076996</v>
       </c>
       <c r="S25">
-        <v>1.456526817236435</v>
+        <v>0.9562483250076996</v>
       </c>
       <c r="T25">
-        <v>0.9175455121417874</v>
+        <v>0.9175165991406665</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3169687400456084</v>
+        <v>1.106737966520642</v>
       </c>
       <c r="D26">
-        <v>1.017255772435103</v>
+        <v>0.9678898219812958</v>
       </c>
       <c r="E26">
-        <v>1.630122549434435</v>
+        <v>1.409996485763323</v>
       </c>
       <c r="F26">
-        <v>1.071647826578256</v>
+        <v>0.8927994789944967</v>
       </c>
       <c r="G26">
-        <v>1.357444547809099</v>
+        <v>0.7270118182049549</v>
       </c>
       <c r="H26">
-        <v>0.2979902394209792</v>
+        <v>1.403908533245268</v>
       </c>
       <c r="I26">
-        <v>0.2979902394209792</v>
+        <v>1.403908533245268</v>
       </c>
       <c r="J26">
-        <v>0.3169687400456084</v>
+        <v>1.106737966520642</v>
       </c>
       <c r="K26">
-        <v>0.3169687400456084</v>
+        <v>1.106737966520642</v>
       </c>
       <c r="L26">
-        <v>1.357444547809099</v>
+        <v>0.7270118182049549</v>
       </c>
       <c r="M26">
-        <v>0.8277173936150389</v>
+        <v>1.065460175725111</v>
       </c>
       <c r="N26">
-        <v>0.8277173936150389</v>
+        <v>1.065460175725111</v>
       </c>
       <c r="O26">
-        <v>0.8908968532217271</v>
+        <v>1.032936724477173</v>
       </c>
       <c r="P26">
-        <v>0.6574678424252288</v>
+        <v>1.079219439323622</v>
       </c>
       <c r="Q26">
-        <v>0.6574678424252288</v>
+        <v>1.079219439323622</v>
       </c>
       <c r="R26">
-        <v>0.5723430668303237</v>
+        <v>1.086099071122877</v>
       </c>
       <c r="S26">
-        <v>0.5723430668303237</v>
+        <v>1.086099071122877</v>
       </c>
       <c r="T26">
-        <v>0.94857161262058</v>
+        <v>1.084724017451663</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.506689002959595</v>
+        <v>2.526898304132813</v>
       </c>
       <c r="D27">
-        <v>0.6135279590372309</v>
+        <v>0.3373476003871103</v>
       </c>
       <c r="E27">
-        <v>1.171956692277378</v>
+        <v>0.5923996266670247</v>
       </c>
       <c r="F27">
-        <v>0.9661107633751319</v>
+        <v>1.276316880983664</v>
       </c>
       <c r="G27">
-        <v>0.7379205501847046</v>
+        <v>0.7669363703194764</v>
       </c>
       <c r="H27">
-        <v>2.468541129897941</v>
+        <v>0.005374290360636204</v>
       </c>
       <c r="I27">
-        <v>2.468541129897941</v>
+        <v>0.005374290360636204</v>
       </c>
       <c r="J27">
-        <v>1.506689002959595</v>
+        <v>2.526898304132813</v>
       </c>
       <c r="K27">
-        <v>1.506689002959595</v>
+        <v>2.526898304132813</v>
       </c>
       <c r="L27">
-        <v>0.7379205501847046</v>
+        <v>0.7669363703194764</v>
       </c>
       <c r="M27">
-        <v>1.603230840041323</v>
+        <v>0.3861553303400563</v>
       </c>
       <c r="N27">
-        <v>1.603230840041323</v>
+        <v>0.3861553303400563</v>
       </c>
       <c r="O27">
-        <v>1.273329879706625</v>
+        <v>0.3698860870224076</v>
       </c>
       <c r="P27">
-        <v>1.571050227680747</v>
+        <v>1.099736321604309</v>
       </c>
       <c r="Q27">
-        <v>1.571050227680747</v>
+        <v>1.099736321604309</v>
       </c>
       <c r="R27">
-        <v>1.554959921500459</v>
+        <v>1.456526817236435</v>
       </c>
       <c r="S27">
-        <v>1.554959921500459</v>
+        <v>1.456526817236435</v>
       </c>
       <c r="T27">
-        <v>1.244124349621997</v>
+        <v>0.9175455121417874</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.19211960238182</v>
+        <v>0.3169687400456084</v>
       </c>
       <c r="D28">
-        <v>1.040662595831358</v>
+        <v>1.017255772435103</v>
       </c>
       <c r="E28">
-        <v>0.932723837271339</v>
+        <v>1.630122549434435</v>
       </c>
       <c r="F28">
-        <v>0.9839404067228864</v>
+        <v>1.071647826578256</v>
       </c>
       <c r="G28">
-        <v>1.150057373860826</v>
+        <v>1.357444547809099</v>
       </c>
       <c r="H28">
-        <v>0.5514182959421122</v>
+        <v>0.2979902394209792</v>
       </c>
       <c r="I28">
-        <v>0.5514182959421122</v>
+        <v>0.2979902394209792</v>
       </c>
       <c r="J28">
-        <v>1.19211960238182</v>
+        <v>0.3169687400456084</v>
       </c>
       <c r="K28">
-        <v>1.19211960238182</v>
+        <v>0.3169687400456084</v>
       </c>
       <c r="L28">
-        <v>1.150057373860826</v>
+        <v>1.357444547809099</v>
       </c>
       <c r="M28">
-        <v>0.8507378349014689</v>
+        <v>0.8277173936150389</v>
       </c>
       <c r="N28">
-        <v>0.8507378349014689</v>
+        <v>0.8277173936150389</v>
       </c>
       <c r="O28">
-        <v>0.9140460885447653</v>
+        <v>0.8908968532217271</v>
       </c>
       <c r="P28">
-        <v>0.9645317573949193</v>
+        <v>0.6574678424252288</v>
       </c>
       <c r="Q28">
-        <v>0.9645317573949193</v>
+        <v>0.6574678424252288</v>
       </c>
       <c r="R28">
-        <v>1.021428718641644</v>
+        <v>0.5723430668303237</v>
       </c>
       <c r="S28">
-        <v>1.021428718641644</v>
+        <v>0.5723430668303237</v>
       </c>
       <c r="T28">
-        <v>0.9751536853350569</v>
+        <v>0.94857161262058</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.506689002959595</v>
+      </c>
+      <c r="D29">
+        <v>0.6135279590372309</v>
+      </c>
+      <c r="E29">
+        <v>1.171956692277378</v>
+      </c>
+      <c r="F29">
+        <v>0.9661107633751319</v>
+      </c>
+      <c r="G29">
+        <v>0.7379205501847046</v>
+      </c>
+      <c r="H29">
+        <v>2.468541129897941</v>
+      </c>
+      <c r="I29">
+        <v>2.468541129897941</v>
+      </c>
+      <c r="J29">
+        <v>1.506689002959595</v>
+      </c>
+      <c r="K29">
+        <v>1.506689002959595</v>
+      </c>
+      <c r="L29">
+        <v>0.7379205501847046</v>
+      </c>
+      <c r="M29">
+        <v>1.603230840041323</v>
+      </c>
+      <c r="N29">
+        <v>1.603230840041323</v>
+      </c>
+      <c r="O29">
+        <v>1.273329879706625</v>
+      </c>
+      <c r="P29">
+        <v>1.571050227680747</v>
+      </c>
+      <c r="Q29">
+        <v>1.571050227680747</v>
+      </c>
+      <c r="R29">
+        <v>1.554959921500459</v>
+      </c>
+      <c r="S29">
+        <v>1.554959921500459</v>
+      </c>
+      <c r="T29">
+        <v>1.244124349621997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.19211960238182</v>
+      </c>
+      <c r="D30">
+        <v>1.040662595831358</v>
+      </c>
+      <c r="E30">
+        <v>0.932723837271339</v>
+      </c>
+      <c r="F30">
+        <v>0.9839404067228864</v>
+      </c>
+      <c r="G30">
+        <v>1.150057373860826</v>
+      </c>
+      <c r="H30">
+        <v>0.5514182959421122</v>
+      </c>
+      <c r="I30">
+        <v>0.5514182959421122</v>
+      </c>
+      <c r="J30">
+        <v>1.19211960238182</v>
+      </c>
+      <c r="K30">
+        <v>1.19211960238182</v>
+      </c>
+      <c r="L30">
+        <v>1.150057373860826</v>
+      </c>
+      <c r="M30">
+        <v>0.8507378349014689</v>
+      </c>
+      <c r="N30">
+        <v>0.8507378349014689</v>
+      </c>
+      <c r="O30">
+        <v>0.9140460885447653</v>
+      </c>
+      <c r="P30">
+        <v>0.9645317573949193</v>
+      </c>
+      <c r="Q30">
+        <v>0.9645317573949193</v>
+      </c>
+      <c r="R30">
+        <v>1.021428718641644</v>
+      </c>
+      <c r="S30">
+        <v>1.021428718641644</v>
+      </c>
+      <c r="T30">
+        <v>0.9751536853350569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.630076096036777</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.8407800463732087</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8841524015091367</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9900015121705052</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8684897273854045</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.5195788717342054</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.5195788717342054</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.630076096036777</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.630076096036777</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8684897273854045</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.694034299559805</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.694034299559805</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7429495484976062</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.006048231718796</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.006048231718796</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.162055197798291</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.162055197798291</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9555131092015395</v>
       </c>
     </row>
